--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#70#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#FC+Dem.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#70#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#FC+Dem.xlsx
@@ -444,34 +444,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.009852107832230549</v>
+        <v>-0.001007085261106918</v>
       </c>
       <c r="C2">
-        <v>0.01634215545131341</v>
+        <v>0.002361245647029258</v>
       </c>
       <c r="D2">
-        <v>-0.01391624301989197</v>
+        <v>-0.0002839850314649325</v>
       </c>
       <c r="E2">
-        <v>-0.03087778649583775</v>
+        <v>-0.003755818764822884</v>
       </c>
       <c r="F2">
-        <v>-0.01565558887175212</v>
+        <v>-0.0007721528233052271</v>
       </c>
       <c r="G2">
-        <v>-0.03320239875678679</v>
+        <v>-0.003136130102114292</v>
       </c>
       <c r="H2">
-        <v>-0.01980411621351085</v>
+        <v>-0.001513434834563138</v>
       </c>
       <c r="I2">
-        <v>0.01025735631986596</v>
+        <v>0.001419608755663785</v>
       </c>
       <c r="J2">
-        <v>-0.004740831225788123</v>
+        <v>-0.001554703344548135</v>
       </c>
       <c r="K2">
-        <v>-0.01105967658991989</v>
+        <v>-0.0007270877089855921</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -479,34 +479,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.1099382435888328</v>
+        <v>-0.09809955899692352</v>
       </c>
       <c r="C3">
-        <v>0.3017752406769803</v>
+        <v>0.1968973391836739</v>
       </c>
       <c r="D3">
-        <v>-0.0928383639415898</v>
+        <v>-0.07114068557948819</v>
       </c>
       <c r="E3">
-        <v>-0.5135684218684988</v>
+        <v>-0.267541447527042</v>
       </c>
       <c r="F3">
-        <v>-0.06011757863435427</v>
+        <v>-0.0921158564891235</v>
       </c>
       <c r="G3">
-        <v>-0.4022615767772104</v>
+        <v>-0.3742712482969506</v>
       </c>
       <c r="H3">
-        <v>-0.3167957690213978</v>
+        <v>-0.1265728316185444</v>
       </c>
       <c r="I3">
-        <v>0.03265569446774461</v>
+        <v>0.1207473651162571</v>
       </c>
       <c r="J3">
-        <v>-0.1385962047297223</v>
+        <v>-0.142151288055134</v>
       </c>
       <c r="K3">
-        <v>-0.4017598593606181</v>
+        <v>-0.2251206479324875</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -514,34 +514,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-2.187343536399658E-06</v>
+        <v>-0.00777689512387698</v>
       </c>
       <c r="C4">
-        <v>0.001202099385728384</v>
+        <v>0.006735895631406502</v>
       </c>
       <c r="D4">
-        <v>-0.0008139697220052841</v>
+        <v>-0.0167329865322536</v>
       </c>
       <c r="E4">
-        <v>-0.002010289560222249</v>
+        <v>-0.02584666919682897</v>
       </c>
       <c r="F4">
-        <v>-8.424527135592471E-05</v>
+        <v>-0.008852123072556405</v>
       </c>
       <c r="G4">
-        <v>-0.002969280182819951</v>
+        <v>-0.02715516072857308</v>
       </c>
       <c r="H4">
-        <v>-0.001358706497171189</v>
+        <v>-0.0104526694630198</v>
       </c>
       <c r="I4">
-        <v>0.001156012513823787</v>
+        <v>0.01373911840310474</v>
       </c>
       <c r="J4">
-        <v>-0.0005252825209056165</v>
+        <v>-0.01442447736743293</v>
       </c>
       <c r="K4">
-        <v>-0.001187696254591678</v>
+        <v>-0.01961552001726365</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -549,34 +549,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-6.653566277843172E-06</v>
+        <v>-0.04764870444263859</v>
       </c>
       <c r="C5">
-        <v>0.001455028693649252</v>
+        <v>0.1071961444224311</v>
       </c>
       <c r="D5">
-        <v>-0.0008591706126713298</v>
+        <v>-0.05810962752344394</v>
       </c>
       <c r="E5">
-        <v>-0.002532898381671411</v>
+        <v>-0.1639478199725163</v>
       </c>
       <c r="F5">
-        <v>-0.0005700459261145671</v>
+        <v>-0.04959799734129656</v>
       </c>
       <c r="G5">
-        <v>-0.003128624291936206</v>
+        <v>-0.1440908678000723</v>
       </c>
       <c r="H5">
-        <v>-0.001414897640911149</v>
+        <v>-0.06826838217136987</v>
       </c>
       <c r="I5">
-        <v>0.001066299217548776</v>
+        <v>0.09315541364647739</v>
       </c>
       <c r="J5">
-        <v>-0.0005261133184165433</v>
+        <v>-0.08651124542122306</v>
       </c>
       <c r="K5">
-        <v>-0.001428230991181048</v>
+        <v>-0.1033723133776861</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -584,34 +584,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.03451384556972682</v>
+        <v>-0.007101720759363556</v>
       </c>
       <c r="C6">
-        <v>0.2017667447015659</v>
+        <v>0.0160914666568311</v>
       </c>
       <c r="D6">
-        <v>-0.2596115198214796</v>
+        <v>-0.008463746673843992</v>
       </c>
       <c r="E6">
-        <v>-0.4787157193184179</v>
+        <v>-0.03250059076697878</v>
       </c>
       <c r="F6">
-        <v>-0.2022105015654261</v>
+        <v>-0.004954584020254597</v>
       </c>
       <c r="G6">
-        <v>-0.3889593588097561</v>
+        <v>-0.02470292909076303</v>
       </c>
       <c r="H6">
-        <v>-0.1093162549871086</v>
+        <v>-0.005592951438195212</v>
       </c>
       <c r="I6">
-        <v>0.2899956417968098</v>
+        <v>0.00867558858817428</v>
       </c>
       <c r="J6">
-        <v>-0.2880365286112279</v>
+        <v>-0.01428328240150428</v>
       </c>
       <c r="K6">
-        <v>-0.2077367240716405</v>
+        <v>-0.01250445830594015</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -619,34 +619,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-8.851548422447214E-06</v>
+        <v>-0.1060078104823659</v>
       </c>
       <c r="C7">
-        <v>0.001262665788080784</v>
+        <v>0.2751509366389002</v>
       </c>
       <c r="D7">
-        <v>-0.001937199218128873</v>
+        <v>-0.1797821384394299</v>
       </c>
       <c r="E7">
-        <v>-0.002235358263277878</v>
+        <v>-0.3411894238938891</v>
       </c>
       <c r="F7">
-        <v>-0.001414918831853052</v>
+        <v>0.2124600754404485</v>
       </c>
       <c r="G7">
-        <v>-0.002977886379074996</v>
+        <v>-0.3812960754092997</v>
       </c>
       <c r="H7">
-        <v>-0.001934696396041186</v>
+        <v>0.007429876874987419</v>
       </c>
       <c r="I7">
-        <v>0.001535149025058949</v>
+        <v>0.190220151451394</v>
       </c>
       <c r="J7">
-        <v>-0.0005244344642101773</v>
+        <v>-0.3411521423411978</v>
       </c>
       <c r="K7">
-        <v>-0.001824913535849</v>
+        <v>-0.352563369503664</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -654,34 +654,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-7.985115291651008E-06</v>
+        <v>-0.009800597473552866</v>
       </c>
       <c r="C8">
-        <v>0.001321056252550091</v>
+        <v>0.01717913703162271</v>
       </c>
       <c r="D8">
-        <v>-0.0007437745060278237</v>
+        <v>-0.01048551766831573</v>
       </c>
       <c r="E8">
-        <v>-0.002887272466788101</v>
+        <v>-0.02781972153971802</v>
       </c>
       <c r="F8">
-        <v>-0.0009668251100688524</v>
+        <v>-0.01424840832167368</v>
       </c>
       <c r="G8">
-        <v>-0.003333506672037876</v>
+        <v>-0.03465375422293485</v>
       </c>
       <c r="H8">
-        <v>-0.001279650722077744</v>
+        <v>-0.01214873522512504</v>
       </c>
       <c r="I8">
-        <v>0.001322415697245696</v>
+        <v>0.01516014787625268</v>
       </c>
       <c r="J8">
-        <v>-0.0005248320998715905</v>
+        <v>-0.01417118194290418</v>
       </c>
       <c r="K8">
-        <v>-0.0004531396680063599</v>
+        <v>-0.01513567970358794</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -689,34 +689,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.004773610349420123</v>
+        <v>-0.04073756336205375</v>
       </c>
       <c r="C9">
-        <v>0.01494342054840365</v>
+        <v>0.1032390712348562</v>
       </c>
       <c r="D9">
-        <v>-0.01466413299081805</v>
+        <v>-0.06596626130351084</v>
       </c>
       <c r="E9">
-        <v>-0.01589747806278878</v>
+        <v>-0.166594819610439</v>
       </c>
       <c r="F9">
-        <v>-0.007883097112445774</v>
+        <v>-0.007118455619335595</v>
       </c>
       <c r="G9">
-        <v>-0.02937588581346743</v>
+        <v>-0.132786822055036</v>
       </c>
       <c r="H9">
-        <v>-0.01271337852485169</v>
+        <v>-0.06104246750614478</v>
       </c>
       <c r="I9">
-        <v>0.009614181782566249</v>
+        <v>0.06228053431302353</v>
       </c>
       <c r="J9">
-        <v>-0.004925765596615895</v>
+        <v>-0.08719283164932259</v>
       </c>
       <c r="K9">
-        <v>-0.008324095053584607</v>
+        <v>-0.07990084694730222</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -724,34 +724,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.03657913246803678</v>
+        <v>-1.235207374860739E-05</v>
       </c>
       <c r="C10">
-        <v>0.06466194379694112</v>
+        <v>0.001894316212277003</v>
       </c>
       <c r="D10">
-        <v>-0.09274018480716723</v>
+        <v>-0.001340232760981212</v>
       </c>
       <c r="E10">
-        <v>-0.1062849987026552</v>
+        <v>-0.003420899383064423</v>
       </c>
       <c r="F10">
-        <v>-0.03730329703538413</v>
+        <v>-0.00165065949799693</v>
       </c>
       <c r="G10">
-        <v>-0.1297315018368346</v>
+        <v>-0.002644805782982262</v>
       </c>
       <c r="H10">
-        <v>-0.1162479735231382</v>
+        <v>-0.0004558441753854313</v>
       </c>
       <c r="I10">
-        <v>0.1046017975173198</v>
+        <v>0.001379609298534205</v>
       </c>
       <c r="J10">
-        <v>-0.03659573085712171</v>
+        <v>-0.001553831261200104</v>
       </c>
       <c r="K10">
-        <v>-0.1507975965494345</v>
+        <v>-0.001643205407162719</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -759,34 +759,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-1.224446164689903E-05</v>
+        <v>-0.06443775658684403</v>
       </c>
       <c r="C11">
-        <v>0.0012320958810712</v>
+        <v>0.1510664615911376</v>
       </c>
       <c r="D11">
-        <v>-0.001536800906622046</v>
+        <v>-0.03383788622737992</v>
       </c>
       <c r="E11">
-        <v>-0.002672625774944621</v>
+        <v>-0.2225689695716589</v>
       </c>
       <c r="F11">
-        <v>-0.0008557739799393409</v>
+        <v>-0.09162867922383054</v>
       </c>
       <c r="G11">
-        <v>-0.003371278666669742</v>
+        <v>-0.2236914483019368</v>
       </c>
       <c r="H11">
-        <v>-0.002757449689072537</v>
+        <v>-0.09363664197251126</v>
       </c>
       <c r="I11">
-        <v>0.0008972623198835237</v>
+        <v>0.05853401829659521</v>
       </c>
       <c r="J11">
-        <v>-0.0005233779892080985</v>
+        <v>-0.187650644089781</v>
       </c>
       <c r="K11">
-        <v>-0.00111185498663314</v>
+        <v>-0.2938348457316222</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -794,34 +794,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-2.764041831300044E-06</v>
+        <v>-0.1424025117508702</v>
       </c>
       <c r="C12">
-        <v>0.001904276215565893</v>
+        <v>0.4805736909345549</v>
       </c>
       <c r="D12">
-        <v>-0.0009362374564999838</v>
+        <v>-0.2106262063447474</v>
       </c>
       <c r="E12">
-        <v>-0.002919736965151555</v>
+        <v>-0.2731108727742644</v>
       </c>
       <c r="F12">
-        <v>-0.0006795579681707863</v>
+        <v>-0.07741118120620208</v>
       </c>
       <c r="G12">
-        <v>-0.002613827023116094</v>
+        <v>-0.3191581485429339</v>
       </c>
       <c r="H12">
-        <v>-0.001391319410981205</v>
+        <v>-0.145792846204692</v>
       </c>
       <c r="I12">
-        <v>0.0006619705326734521</v>
+        <v>0.2567319533507524</v>
       </c>
       <c r="J12">
-        <v>-0.0005247593895192473</v>
+        <v>-0.227785608841249</v>
       </c>
       <c r="K12">
-        <v>-0.0006525799318291499</v>
+        <v>-0.4534106890780198</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -829,34 +829,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.006288082363504491</v>
+        <v>-0.1015294516082406</v>
       </c>
       <c r="C13">
-        <v>0.01247686462805023</v>
+        <v>0.2332189331342935</v>
       </c>
       <c r="D13">
-        <v>-0.007707727140118133</v>
+        <v>-0.1025503552539354</v>
       </c>
       <c r="E13">
-        <v>-0.02363758239366006</v>
+        <v>-0.3244532855653032</v>
       </c>
       <c r="F13">
-        <v>-0.01068677912740274</v>
+        <v>0.004531127668843805</v>
       </c>
       <c r="G13">
-        <v>-0.03006378592376729</v>
+        <v>-0.319186014512549</v>
       </c>
       <c r="H13">
-        <v>-0.01775648870769614</v>
+        <v>-0.02246338611160386</v>
       </c>
       <c r="I13">
-        <v>0.01095746370637878</v>
+        <v>0.2685370910236624</v>
       </c>
       <c r="J13">
-        <v>-0.004926676755536554</v>
+        <v>-0.2072404605216243</v>
       </c>
       <c r="K13">
-        <v>-0.01210946831020357</v>
+        <v>-0.2779948062293165</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -864,34 +864,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.0009483139975510005</v>
+        <v>-0.0009142553724239818</v>
       </c>
       <c r="C14">
-        <v>0.001931934285761506</v>
+        <v>0.002240196277808691</v>
       </c>
       <c r="D14">
-        <v>-0.0006276956743957931</v>
+        <v>-0.001251993633073554</v>
       </c>
       <c r="E14">
-        <v>-0.003182899934826319</v>
+        <v>-0.002669373231489682</v>
       </c>
       <c r="F14">
-        <v>-0.001187295333943769</v>
+        <v>-0.001484946693661338</v>
       </c>
       <c r="G14">
-        <v>-0.00330926721587262</v>
+        <v>-0.002791905049594784</v>
       </c>
       <c r="H14">
-        <v>-0.002113851927316882</v>
+        <v>-0.001743533363327099</v>
       </c>
       <c r="I14">
-        <v>0.001581590025165031</v>
+        <v>0.001766174137941268</v>
       </c>
       <c r="J14">
-        <v>-0.0005222313476686044</v>
+        <v>-0.001553599335872092</v>
       </c>
       <c r="K14">
-        <v>-0.001552850449498891</v>
+        <v>-0.001325057698215266</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -899,34 +899,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-1.66394295860797E-05</v>
+        <v>-0.1054578754213291</v>
       </c>
       <c r="C15">
-        <v>0.0007988537942746914</v>
+        <v>0.2323701498437811</v>
       </c>
       <c r="D15">
-        <v>-0.001224275529101676</v>
+        <v>-0.07374207928844811</v>
       </c>
       <c r="E15">
-        <v>-0.001638775576542685</v>
+        <v>-0.3478836960255497</v>
       </c>
       <c r="F15">
-        <v>-0.0006065692113217379</v>
+        <v>-0.1269510315671632</v>
       </c>
       <c r="G15">
-        <v>-0.003007912302917682</v>
+        <v>-0.2427710980819966</v>
       </c>
       <c r="H15">
-        <v>-0.001594123090974699</v>
+        <v>-0.2012351306759287</v>
       </c>
       <c r="I15">
-        <v>0.001422349942378823</v>
+        <v>0.1388998281268742</v>
       </c>
       <c r="J15">
-        <v>-0.0005266942115645579</v>
+        <v>-0.1517149912949272</v>
       </c>
       <c r="K15">
-        <v>-0.001535595493621486</v>
+        <v>-0.1860919795911418</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -934,34 +934,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.007196628186236956</v>
+        <v>-0.00102097918894257</v>
       </c>
       <c r="C16">
-        <v>0.4594809507791217</v>
+        <v>0.001402357206282941</v>
       </c>
       <c r="D16">
-        <v>-0.4058313879196895</v>
+        <v>-0.0009245884441729132</v>
       </c>
       <c r="E16">
-        <v>-0.4877566472731754</v>
+        <v>-0.002574012988833417</v>
       </c>
       <c r="F16">
-        <v>0.2007475209469014</v>
+        <v>-0.001349551543620866</v>
       </c>
       <c r="G16">
-        <v>-0.2338990031961522</v>
+        <v>-0.003589428654714521</v>
       </c>
       <c r="H16">
-        <v>-0.2830144064762891</v>
+        <v>-0.002036882896344518</v>
       </c>
       <c r="I16">
-        <v>0.1511990017322216</v>
+        <v>0.002261958631124967</v>
       </c>
       <c r="J16">
-        <v>-0.4096743037084907</v>
+        <v>-0.00155003129982019</v>
       </c>
       <c r="K16">
-        <v>-0.3342407868736574</v>
+        <v>-0.001488723791014563</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -969,34 +969,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.006277871375080273</v>
+        <v>-0.009344949005873746</v>
       </c>
       <c r="C17">
-        <v>0.01227601959184728</v>
+        <v>0.01701356857611945</v>
       </c>
       <c r="D17">
-        <v>-0.01185401633065736</v>
+        <v>-0.006850153150291999</v>
       </c>
       <c r="E17">
-        <v>-0.02277043104301901</v>
+        <v>-0.02894339328066727</v>
       </c>
       <c r="F17">
-        <v>-0.004789522064490346</v>
+        <v>-0.01140371410952714</v>
       </c>
       <c r="G17">
-        <v>-0.02609748280901828</v>
+        <v>-0.03074813142825805</v>
       </c>
       <c r="H17">
-        <v>-0.02173137571722564</v>
+        <v>-0.01534899182614813</v>
       </c>
       <c r="I17">
-        <v>0.01423540720392529</v>
+        <v>0.02006986082597955</v>
       </c>
       <c r="J17">
-        <v>-0.004952777181204886</v>
+        <v>-0.01444412858887493</v>
       </c>
       <c r="K17">
-        <v>-0.01375744383606329</v>
+        <v>-0.01219821235783315</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1004,34 +1004,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.0206248078586022</v>
+        <v>-0.0009413372534104521</v>
       </c>
       <c r="C18">
-        <v>0.2689538799514058</v>
+        <v>0.00190495500956414</v>
       </c>
       <c r="D18">
-        <v>-0.1980103476600781</v>
+        <v>-0.00113041465117943</v>
       </c>
       <c r="E18">
-        <v>-0.209428592181679</v>
+        <v>-0.00371469996913354</v>
       </c>
       <c r="F18">
-        <v>0.02992261928242811</v>
+        <v>-0.001365573091115052</v>
       </c>
       <c r="G18">
-        <v>-0.2475041069774298</v>
+        <v>-0.002924930382539835</v>
       </c>
       <c r="H18">
-        <v>-0.258236750036679</v>
+        <v>-0.001064825214507186</v>
       </c>
       <c r="I18">
-        <v>0.1386809252402152</v>
+        <v>0.00060420661199121</v>
       </c>
       <c r="J18">
-        <v>-0.1799012225607546</v>
+        <v>-0.001552113355314695</v>
       </c>
       <c r="K18">
-        <v>-0.1844874324882672</v>
+        <v>-0.001409859399151859</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1039,34 +1039,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.05772230668634856</v>
+        <v>-1.190815734930288E-05</v>
       </c>
       <c r="C19">
-        <v>0.2389374832679965</v>
+        <v>0.001296395839106461</v>
       </c>
       <c r="D19">
-        <v>-0.007366864123356297</v>
+        <v>-0.001329485784904283</v>
       </c>
       <c r="E19">
-        <v>-0.3231007352044207</v>
+        <v>-0.002552456626805382</v>
       </c>
       <c r="F19">
-        <v>-0.01809685846250443</v>
+        <v>-0.00115226371185399</v>
       </c>
       <c r="G19">
-        <v>-0.3883123942179447</v>
+        <v>-0.002902043635506697</v>
       </c>
       <c r="H19">
-        <v>-0.009340131417648547</v>
+        <v>-0.001991607383338782</v>
       </c>
       <c r="I19">
-        <v>0.05518117018320119</v>
+        <v>0.001269191812636433</v>
       </c>
       <c r="J19">
-        <v>-0.1404903337670491</v>
+        <v>-0.001553110755281816</v>
       </c>
       <c r="K19">
-        <v>-0.3492978048046732</v>
+        <v>-0.002247852470133904</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1074,34 +1074,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.04475477183688364</v>
+        <v>-0.1045951961547031</v>
       </c>
       <c r="C20">
-        <v>0.1141154727013245</v>
+        <v>0.3763530301198458</v>
       </c>
       <c r="D20">
-        <v>-0.07782557590501844</v>
+        <v>-0.2257449843086963</v>
       </c>
       <c r="E20">
-        <v>-0.1201328446808085</v>
+        <v>-0.1484976207044769</v>
       </c>
       <c r="F20">
-        <v>-0.04333156629765136</v>
+        <v>-0.04539553299347671</v>
       </c>
       <c r="G20">
-        <v>-0.1919115901472105</v>
+        <v>-0.4566890105754931</v>
       </c>
       <c r="H20">
-        <v>-0.09032567407604453</v>
+        <v>0.02745598719680039</v>
       </c>
       <c r="I20">
-        <v>0.08802526136558783</v>
+        <v>0.2124857455124166</v>
       </c>
       <c r="J20">
-        <v>-0.03438137837414745</v>
+        <v>-0.2304146407510425</v>
       </c>
       <c r="K20">
-        <v>-0.1078099934415539</v>
+        <v>-0.381860140681776</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1109,34 +1109,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-8.332037322314805E-06</v>
+        <v>-0.007258107670843951</v>
       </c>
       <c r="C21">
-        <v>0.00120301890533769</v>
+        <v>0.01917677681191115</v>
       </c>
       <c r="D21">
-        <v>-0.001353570439472693</v>
+        <v>-0.008850199773875614</v>
       </c>
       <c r="E21">
-        <v>-0.002712859377228761</v>
+        <v>-0.01982797732003672</v>
       </c>
       <c r="F21">
-        <v>-0.001200561429919529</v>
+        <v>-0.008772974909599215</v>
       </c>
       <c r="G21">
-        <v>-0.002668485109082035</v>
+        <v>-0.02919332857784023</v>
       </c>
       <c r="H21">
-        <v>-0.001953205661591206</v>
+        <v>-0.01386656391582489</v>
       </c>
       <c r="I21">
-        <v>0.001344551010605493</v>
+        <v>0.01335948162690112</v>
       </c>
       <c r="J21">
-        <v>-0.000525153790314644</v>
+        <v>-0.01426515988288268</v>
       </c>
       <c r="K21">
-        <v>-0.001691259461077549</v>
+        <v>-0.01325510285135015</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1144,34 +1144,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.005557970613293727</v>
+        <v>-0.0009778267923191727</v>
       </c>
       <c r="C22">
-        <v>0.01013926887072175</v>
+        <v>0.001338184285441565</v>
       </c>
       <c r="D22">
-        <v>-0.01617449024407928</v>
+        <v>-0.001342708024522055</v>
       </c>
       <c r="E22">
-        <v>-0.01799523477076549</v>
+        <v>-0.002715010906709637</v>
       </c>
       <c r="F22">
-        <v>-0.01167701312815536</v>
+        <v>-0.001112218222340963</v>
       </c>
       <c r="G22">
-        <v>-0.03029262881155745</v>
+        <v>-0.003109861081175776</v>
       </c>
       <c r="H22">
-        <v>-0.01397130878247398</v>
+        <v>-0.002171247730585177</v>
       </c>
       <c r="I22">
-        <v>0.008635200084647448</v>
+        <v>0.002148394305550431</v>
       </c>
       <c r="J22">
-        <v>-0.004881255056615116</v>
+        <v>-0.001553678138357876</v>
       </c>
       <c r="K22">
-        <v>-0.01219441323486875</v>
+        <v>-0.001705559075014985</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1179,34 +1179,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.007059218520327118</v>
+        <v>-0.09311979398259272</v>
       </c>
       <c r="C23">
-        <v>0.01479036108254752</v>
+        <v>0.1973653798114836</v>
       </c>
       <c r="D23">
-        <v>-0.01334784218237047</v>
+        <v>-0.09750617462823669</v>
       </c>
       <c r="E23">
-        <v>-0.02620884341840397</v>
+        <v>-0.314166778570616</v>
       </c>
       <c r="F23">
-        <v>-0.01229098505073696</v>
+        <v>0.05257858992411883</v>
       </c>
       <c r="G23">
-        <v>-0.02929781374606577</v>
+        <v>-0.2953650098124753</v>
       </c>
       <c r="H23">
-        <v>-0.02108017109445175</v>
+        <v>0.03758313318894352</v>
       </c>
       <c r="I23">
-        <v>0.001545806211491404</v>
+        <v>0.2603110538844268</v>
       </c>
       <c r="J23">
-        <v>-0.004852459311327964</v>
+        <v>-0.2132968944499653</v>
       </c>
       <c r="K23">
-        <v>-0.007534734539144435</v>
+        <v>-0.2636593685215109</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1214,34 +1214,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.006097637370041629</v>
+        <v>-0.005749572412963561</v>
       </c>
       <c r="C24">
-        <v>0.01583207175865377</v>
+        <v>0.006868670288930857</v>
       </c>
       <c r="D24">
-        <v>-0.0009278488494452345</v>
+        <v>-0.01213312821367439</v>
       </c>
       <c r="E24">
-        <v>-0.02503890178410972</v>
+        <v>-0.0215093676733951</v>
       </c>
       <c r="F24">
-        <v>-0.008180299174306091</v>
+        <v>-0.011287056944544</v>
       </c>
       <c r="G24">
-        <v>-0.02915555020110635</v>
+        <v>-0.02507842095575644</v>
       </c>
       <c r="H24">
-        <v>-0.01474557694035583</v>
+        <v>-0.01032885653045128</v>
       </c>
       <c r="I24">
-        <v>0.01360834519873559</v>
+        <v>0.0139956842889669</v>
       </c>
       <c r="J24">
-        <v>-0.005087377796443148</v>
+        <v>-0.01436981913504198</v>
       </c>
       <c r="K24">
-        <v>-0.01259710557774561</v>
+        <v>-0.008912539047785972</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1249,34 +1249,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.02382250254643011</v>
+        <v>-8.766174074636399E-06</v>
       </c>
       <c r="C25">
-        <v>0.07798139157264421</v>
+        <v>0.001394951153311442</v>
       </c>
       <c r="D25">
-        <v>-0.0762782241615137</v>
+        <v>-0.000948458517329868</v>
       </c>
       <c r="E25">
-        <v>-0.3572937117267934</v>
+        <v>-0.002334271871291032</v>
       </c>
       <c r="F25">
-        <v>-0.1728840980453542</v>
+        <v>-0.000844775447152018</v>
       </c>
       <c r="G25">
-        <v>-0.3515278181979681</v>
+        <v>-0.00270239381320625</v>
       </c>
       <c r="H25">
-        <v>-0.1457023004172485</v>
+        <v>-0.001294716586812652</v>
       </c>
       <c r="I25">
-        <v>0.1244483694507316</v>
+        <v>0.001504553167935945</v>
       </c>
       <c r="J25">
-        <v>-0.1823953756779393</v>
+        <v>-0.001555786832642215</v>
       </c>
       <c r="K25">
-        <v>-0.224321017063124</v>
+        <v>-0.0012894368842754</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1284,34 +1284,34 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.008560756010605514</v>
+        <v>-0.00835836184977397</v>
       </c>
       <c r="C26">
-        <v>0.01490435638031095</v>
+        <v>0.01674276731767108</v>
       </c>
       <c r="D26">
-        <v>-0.01569556417937389</v>
+        <v>-0.01250535568841098</v>
       </c>
       <c r="E26">
-        <v>-0.02843108859517939</v>
+        <v>-0.02794966405975452</v>
       </c>
       <c r="F26">
-        <v>-0.007691646708748099</v>
+        <v>-0.006548990509521937</v>
       </c>
       <c r="G26">
-        <v>-0.03173324777255693</v>
+        <v>-0.02688056477004304</v>
       </c>
       <c r="H26">
-        <v>-0.01947855842669864</v>
+        <v>-0.01406315792278555</v>
       </c>
       <c r="I26">
-        <v>0.008534634991198706</v>
+        <v>0.01208622972770728</v>
       </c>
       <c r="J26">
-        <v>-0.004949282781610352</v>
+        <v>-0.01445958129170342</v>
       </c>
       <c r="K26">
-        <v>-0.01620406466079658</v>
+        <v>-0.01940989618079339</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1319,34 +1319,34 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-1.121543197888776E-05</v>
+        <v>-0.1174479729899385</v>
       </c>
       <c r="C27">
-        <v>0.002095787723418657</v>
+        <v>0.3758157610340933</v>
       </c>
       <c r="D27">
-        <v>-0.0009641364728805955</v>
+        <v>-0.2159846554117648</v>
       </c>
       <c r="E27">
-        <v>-0.002906447559783988</v>
+        <v>-0.09023188727251334</v>
       </c>
       <c r="F27">
-        <v>-0.001612000923558741</v>
+        <v>0.01354312507477128</v>
       </c>
       <c r="G27">
-        <v>-0.002533364623799043</v>
+        <v>-0.4601324626115189</v>
       </c>
       <c r="H27">
-        <v>-0.002419288558792184</v>
+        <v>0.07245876040323478</v>
       </c>
       <c r="I27">
-        <v>0.001835217984442787</v>
+        <v>0.2269825152706464</v>
       </c>
       <c r="J27">
-        <v>-0.0005245725885961551</v>
+        <v>-0.2364497055529458</v>
       </c>
       <c r="K27">
-        <v>-0.001241745452155037</v>
+        <v>-0.3605893037350708</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1354,34 +1354,34 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.007737230948019481</v>
+        <v>-0.08906345852821157</v>
       </c>
       <c r="C28">
-        <v>0.01603519520806407</v>
+        <v>0.1988031841152939</v>
       </c>
       <c r="D28">
-        <v>-0.01637306487143407</v>
+        <v>-0.1385233196828425</v>
       </c>
       <c r="E28">
-        <v>-0.03343939306939492</v>
+        <v>-0.1908090846723379</v>
       </c>
       <c r="F28">
-        <v>-0.008036505792378768</v>
+        <v>-0.067490810541698</v>
       </c>
       <c r="G28">
-        <v>-0.02638706411578797</v>
+        <v>-0.3648768324849511</v>
       </c>
       <c r="H28">
-        <v>-0.01177748178291717</v>
+        <v>-0.1261423751762593</v>
       </c>
       <c r="I28">
-        <v>0.006223394816879596</v>
+        <v>0.1171466750496018</v>
       </c>
       <c r="J28">
-        <v>-0.004999086835287481</v>
+        <v>-0.1707300682500569</v>
       </c>
       <c r="K28">
-        <v>-0.01529607494315549</v>
+        <v>-0.2019630013185324</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1389,34 +1389,34 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-9.277197241565826E-06</v>
+        <v>-0.009756206985762565</v>
       </c>
       <c r="C29">
-        <v>0.0009659778053487256</v>
+        <v>0.01561417940432796</v>
       </c>
       <c r="D29">
-        <v>-0.0006799130201398136</v>
+        <v>-0.01335423343889664</v>
       </c>
       <c r="E29">
-        <v>-0.002631075887638377</v>
+        <v>-0.03480510152035575</v>
       </c>
       <c r="F29">
-        <v>-0.000871083754933996</v>
+        <v>-0.01158921810333144</v>
       </c>
       <c r="G29">
-        <v>-0.003586848035223989</v>
+        <v>-0.02698095910914182</v>
       </c>
       <c r="H29">
-        <v>-0.002046641203118431</v>
+        <v>-0.01469593690948992</v>
       </c>
       <c r="I29">
-        <v>0.001342598252215383</v>
+        <v>0.01951695329289018</v>
       </c>
       <c r="J29">
-        <v>-0.0005250204390247847</v>
+        <v>-0.01409194661655944</v>
       </c>
       <c r="K29">
-        <v>-0.001384424556618382</v>
+        <v>-0.009615051689653639</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1424,34 +1424,34 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.001012621517366774</v>
+        <v>-1.119754149729357E-05</v>
       </c>
       <c r="C30">
-        <v>0.00144783972513577</v>
+        <v>0.00129934693274754</v>
       </c>
       <c r="D30">
-        <v>-0.001264290657098334</v>
+        <v>-0.001091230383950256</v>
       </c>
       <c r="E30">
-        <v>-0.003414217250808412</v>
+        <v>-0.002166184348593328</v>
       </c>
       <c r="F30">
-        <v>-0.001364028525251082</v>
+        <v>-0.0007783112452318358</v>
       </c>
       <c r="G30">
-        <v>-0.00391097123281493</v>
+        <v>-0.003659923894435722</v>
       </c>
       <c r="H30">
-        <v>-0.001442414810344127</v>
+        <v>-0.001670380212713847</v>
       </c>
       <c r="I30">
-        <v>0.001210209482259975</v>
+        <v>0.001136015551905343</v>
       </c>
       <c r="J30">
-        <v>-0.0005227554411851282</v>
+        <v>-0.001554359512541092</v>
       </c>
       <c r="K30">
-        <v>-0.001417864824587637</v>
+        <v>-0.001098125778985328</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1459,34 +1459,34 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.0005526014027095323</v>
+        <v>-0.07748701984254812</v>
       </c>
       <c r="C31">
-        <v>0.0007892779573787023</v>
+        <v>0.1797788699028821</v>
       </c>
       <c r="D31">
-        <v>-0.000986726949736709</v>
+        <v>-0.05252025760196301</v>
       </c>
       <c r="E31">
-        <v>-0.001930178341935901</v>
+        <v>-0.3076651984133238</v>
       </c>
       <c r="F31">
-        <v>-0.000956114074606509</v>
+        <v>-0.1275837110991073</v>
       </c>
       <c r="G31">
-        <v>-0.00303294369859418</v>
+        <v>-0.210526899326866</v>
       </c>
       <c r="H31">
-        <v>-0.001825143125956158</v>
+        <v>0.05594630839337238</v>
       </c>
       <c r="I31">
-        <v>0.0009933644950820845</v>
+        <v>0.1822397265620619</v>
       </c>
       <c r="J31">
-        <v>-0.0005243447804080261</v>
+        <v>-0.2407847115939353</v>
       </c>
       <c r="K31">
-        <v>-0.001854224749839734</v>
+        <v>-0.2922203641526968</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1494,34 +1494,34 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.006980518121641586</v>
+        <v>-0.009042539057179215</v>
       </c>
       <c r="C32">
-        <v>0.01436775302878236</v>
+        <v>0.01978706554214996</v>
       </c>
       <c r="D32">
-        <v>-0.01162588878019987</v>
+        <v>-0.01226171446742405</v>
       </c>
       <c r="E32">
-        <v>-0.03033960891736067</v>
+        <v>-0.03183829800106752</v>
       </c>
       <c r="F32">
-        <v>-0.006115543795323921</v>
+        <v>-0.01289355305214564</v>
       </c>
       <c r="G32">
-        <v>-0.03000354834227385</v>
+        <v>-0.02513082209890008</v>
       </c>
       <c r="H32">
-        <v>-0.01646026877516034</v>
+        <v>-0.01417790054555025</v>
       </c>
       <c r="I32">
-        <v>0.006352595683370479</v>
+        <v>0.01315587071047454</v>
       </c>
       <c r="J32">
-        <v>-0.004972011825791446</v>
+        <v>-0.01430160139114691</v>
       </c>
       <c r="K32">
-        <v>-0.009012936870396501</v>
+        <v>-0.0142541592304325</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1529,34 +1529,34 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.007196513517545026</v>
+        <v>-0.1167679001887315</v>
       </c>
       <c r="C33">
-        <v>0.005728168854554907</v>
+        <v>0.2210705644897271</v>
       </c>
       <c r="D33">
-        <v>-0.008505795160470989</v>
+        <v>-0.0535675995361524</v>
       </c>
       <c r="E33">
-        <v>-0.02516771370860602</v>
+        <v>-0.3920153518813707</v>
       </c>
       <c r="F33">
-        <v>-0.00867174264700526</v>
+        <v>-0.1135830612923035</v>
       </c>
       <c r="G33">
-        <v>-0.02997914737872872</v>
+        <v>-0.3086834765653913</v>
       </c>
       <c r="H33">
-        <v>-0.01702276855549148</v>
+        <v>-0.1084676131750511</v>
       </c>
       <c r="I33">
-        <v>0.01415570242368299</v>
+        <v>0.2271016418566144</v>
       </c>
       <c r="J33">
-        <v>-0.00511854260535533</v>
+        <v>-0.1995224330630339</v>
       </c>
       <c r="K33">
-        <v>-0.02184187141305112</v>
+        <v>-0.3741267300879508</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1564,34 +1564,34 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-9.791114903399627E-06</v>
+        <v>-0.006525974487647462</v>
       </c>
       <c r="C34">
-        <v>0.001186911442603366</v>
+        <v>0.01065109810333685</v>
       </c>
       <c r="D34">
-        <v>-0.001799757856888845</v>
+        <v>-0.01273932068457118</v>
       </c>
       <c r="E34">
-        <v>-0.00263430441316865</v>
+        <v>-0.02271271052313265</v>
       </c>
       <c r="F34">
-        <v>-0.001008704183803241</v>
+        <v>-0.007848197403725646</v>
       </c>
       <c r="G34">
-        <v>-0.003408888586611041</v>
+        <v>-0.02580321857867613</v>
       </c>
       <c r="H34">
-        <v>-0.001629419092348835</v>
+        <v>-0.01125467110456858</v>
       </c>
       <c r="I34">
-        <v>0.001183737366381541</v>
+        <v>0.01228143379507073</v>
       </c>
       <c r="J34">
-        <v>-0.0005237289135178097</v>
+        <v>-0.01430226224263485</v>
       </c>
       <c r="K34">
-        <v>-0.001293764972155447</v>
+        <v>-0.01612609653336838</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1599,34 +1599,34 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-6.031183903056786E-06</v>
+        <v>-0.1228600718096794</v>
       </c>
       <c r="C35">
-        <v>0.001758087576914399</v>
+        <v>0.2745213764533989</v>
       </c>
       <c r="D35">
-        <v>-0.0002999500820382453</v>
+        <v>-0.09355824196253411</v>
       </c>
       <c r="E35">
-        <v>-0.002512239076937297</v>
+        <v>-0.454207923491698</v>
       </c>
       <c r="F35">
-        <v>-0.0009670560429676729</v>
+        <v>-0.04395249586686457</v>
       </c>
       <c r="G35">
-        <v>-0.002820082511848861</v>
+        <v>-0.3095746360821072</v>
       </c>
       <c r="H35">
-        <v>-0.00152479412801641</v>
+        <v>-0.1320711216274762</v>
       </c>
       <c r="I35">
-        <v>0.001076139846468947</v>
+        <v>0.3805348802805317</v>
       </c>
       <c r="J35">
-        <v>-0.000525300274536896</v>
+        <v>-0.2197851790437183</v>
       </c>
       <c r="K35">
-        <v>-0.0008257371375274612</v>
+        <v>-0.3085651664749849</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1634,34 +1634,34 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-3.607305368850243E-06</v>
+        <v>-1.110913974006411E-05</v>
       </c>
       <c r="C36">
-        <v>0.001544536374232613</v>
+        <v>0.001366742690452447</v>
       </c>
       <c r="D36">
-        <v>-0.001028098680080554</v>
+        <v>-0.001656448370741423</v>
       </c>
       <c r="E36">
-        <v>-0.002493835350568516</v>
+        <v>-0.00295929727030902</v>
       </c>
       <c r="F36">
-        <v>-0.0009651427856440254</v>
+        <v>-0.0009976903753559749</v>
       </c>
       <c r="G36">
-        <v>-0.002957826038962766</v>
+        <v>-0.00282703587259909</v>
       </c>
       <c r="H36">
-        <v>-0.002392195754357379</v>
+        <v>-0.001331669478584433</v>
       </c>
       <c r="I36">
-        <v>0.001590688400484426</v>
+        <v>0.001291263802876707</v>
       </c>
       <c r="J36">
-        <v>-0.0005255048502493157</v>
+        <v>-0.001554142451310899</v>
       </c>
       <c r="K36">
-        <v>-0.0008520699700578706</v>
+        <v>-0.001551464653501323</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1669,34 +1669,34 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-1.027582530575248E-05</v>
+        <v>-1.095346267353326E-05</v>
       </c>
       <c r="C37">
-        <v>0.00147672779712902</v>
+        <v>0.001643717709076756</v>
       </c>
       <c r="D37">
-        <v>-0.0008989956535140137</v>
+        <v>-0.001734044159982471</v>
       </c>
       <c r="E37">
-        <v>-0.002908559449607124</v>
+        <v>-0.003250906726033249</v>
       </c>
       <c r="F37">
-        <v>-0.001536321894069053</v>
+        <v>-0.0005722277507024785</v>
       </c>
       <c r="G37">
-        <v>-0.00267080546527833</v>
+        <v>-0.002859055036222303</v>
       </c>
       <c r="H37">
-        <v>-0.001671838270320308</v>
+        <v>-0.001084626272725581</v>
       </c>
       <c r="I37">
-        <v>0.002202627272896693</v>
+        <v>-1.358757230119115E-05</v>
       </c>
       <c r="J37">
-        <v>-0.0005255933337848157</v>
+        <v>-0.001552465124100155</v>
       </c>
       <c r="K37">
-        <v>-0.001580097120626384</v>
+        <v>-0.001167991274424696</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1704,34 +1704,34 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-1.432441929264755E-05</v>
+        <v>-0.01011862128287433</v>
       </c>
       <c r="C38">
-        <v>0.001459210507209326</v>
+        <v>0.01268059817870498</v>
       </c>
       <c r="D38">
-        <v>-0.001580130525145371</v>
+        <v>-0.01645916718959272</v>
       </c>
       <c r="E38">
-        <v>-0.002273510655791668</v>
+        <v>-0.0276332844065514</v>
       </c>
       <c r="F38">
-        <v>-0.0009739971802156858</v>
+        <v>-0.01227749701636866</v>
       </c>
       <c r="G38">
-        <v>-0.002391539037699581</v>
+        <v>-0.03482514263109118</v>
       </c>
       <c r="H38">
-        <v>-0.0009591004117207509</v>
+        <v>-0.02304137474378985</v>
       </c>
       <c r="I38">
-        <v>0.0009664411234270817</v>
+        <v>0.009400990224547576</v>
       </c>
       <c r="J38">
-        <v>-0.0005260462113494625</v>
+        <v>-0.01386822898230091</v>
       </c>
       <c r="K38">
-        <v>-0.001026272580820808</v>
+        <v>-0.01069015039870276</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1739,34 +1739,34 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.007322267267896039</v>
+        <v>-0.159187087877974</v>
       </c>
       <c r="C39">
-        <v>0.01369784790141081</v>
+        <v>0.3058028400563443</v>
       </c>
       <c r="D39">
-        <v>-0.01265839334607963</v>
+        <v>0.003161027259744713</v>
       </c>
       <c r="E39">
-        <v>-0.0287868553820778</v>
+        <v>-0.4081873000097088</v>
       </c>
       <c r="F39">
-        <v>-0.012477483765745</v>
+        <v>-0.1692264838421103</v>
       </c>
       <c r="G39">
-        <v>-0.02576350229605832</v>
+        <v>-0.6260299545390595</v>
       </c>
       <c r="H39">
-        <v>-0.01780755404198709</v>
+        <v>0.003031220919380261</v>
       </c>
       <c r="I39">
-        <v>0.01508708131985532</v>
+        <v>0.1025442076154088</v>
       </c>
       <c r="J39">
-        <v>-0.005025578135593779</v>
+        <v>-0.1796729805759223</v>
       </c>
       <c r="K39">
-        <v>-0.01308260430366768</v>
+        <v>-0.2404665907576396</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1774,34 +1774,34 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.005757501011019008</v>
+        <v>-0.04951772384411401</v>
       </c>
       <c r="C40">
-        <v>0.009214431148076472</v>
+        <v>0.1070871435582036</v>
       </c>
       <c r="D40">
-        <v>-0.0136293039657284</v>
+        <v>-0.06714914984336491</v>
       </c>
       <c r="E40">
-        <v>-0.02166866100921964</v>
+        <v>-0.1829869046620381</v>
       </c>
       <c r="F40">
-        <v>-0.00891078798210523</v>
+        <v>-0.03918152211917101</v>
       </c>
       <c r="G40">
-        <v>-0.0305925001363031</v>
+        <v>-0.140356585525085</v>
       </c>
       <c r="H40">
-        <v>-0.01538412244570144</v>
+        <v>-0.04968425523766309</v>
       </c>
       <c r="I40">
-        <v>0.008869428363971853</v>
+        <v>0.09753164543742804</v>
       </c>
       <c r="J40">
-        <v>-0.004923050570776351</v>
+        <v>-0.08965856958534267</v>
       </c>
       <c r="K40">
-        <v>-0.01270765320080228</v>
+        <v>-0.08334672498860624</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1809,34 +1809,34 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-1.785521948904867E-05</v>
+        <v>-0.1237672958541344</v>
       </c>
       <c r="C41">
-        <v>0.001891497841736614</v>
+        <v>0.1591927447709141</v>
       </c>
       <c r="D41">
-        <v>-0.0003388879182483405</v>
+        <v>-0.10822693506648</v>
       </c>
       <c r="E41">
-        <v>-0.002802060931960655</v>
+        <v>-0.3661944961027422</v>
       </c>
       <c r="F41">
-        <v>-0.0009971813034754446</v>
+        <v>-0.183308042818593</v>
       </c>
       <c r="G41">
-        <v>-0.002238224214841376</v>
+        <v>-0.5264388190406318</v>
       </c>
       <c r="H41">
-        <v>-0.001329409692857255</v>
+        <v>0.07657204152460755</v>
       </c>
       <c r="I41">
-        <v>0.001342803649946322</v>
+        <v>0.186920144036614</v>
       </c>
       <c r="J41">
-        <v>-0.0005267429810574236</v>
+        <v>-0.2060407965812104</v>
       </c>
       <c r="K41">
-        <v>-0.0009055579377053708</v>
+        <v>-0.2343049415783077</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1844,34 +1844,34 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-1.034519321730779E-05</v>
+        <v>-0.008286845452741106</v>
       </c>
       <c r="C42">
-        <v>0.001444702984530201</v>
+        <v>0.01577010633466688</v>
       </c>
       <c r="D42">
-        <v>-0.001482417733198476</v>
+        <v>-0.01119212560731874</v>
       </c>
       <c r="E42">
-        <v>-0.002889667266054238</v>
+        <v>-0.02906025219073598</v>
       </c>
       <c r="F42">
-        <v>-0.0006341985403871904</v>
+        <v>-0.009098178287326963</v>
       </c>
       <c r="G42">
-        <v>-0.003176502274265167</v>
+        <v>-0.02954952976318772</v>
       </c>
       <c r="H42">
-        <v>-0.001772155534473869</v>
+        <v>-0.007459995928443467</v>
       </c>
       <c r="I42">
-        <v>0.00176583936366369</v>
+        <v>0.01939679683552319</v>
       </c>
       <c r="J42">
-        <v>-0.0005257771294895822</v>
+        <v>-0.01424106136444532</v>
       </c>
       <c r="K42">
-        <v>-0.00115962681129494</v>
+        <v>-0.007848309488628956</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1879,34 +1879,34 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.006704885932969573</v>
+        <v>-0.1299965543005659</v>
       </c>
       <c r="C43">
-        <v>0.01581227545664201</v>
+        <v>0.3500828671607628</v>
       </c>
       <c r="D43">
-        <v>-0.01418656191053663</v>
+        <v>-0.08387211832205387</v>
       </c>
       <c r="E43">
-        <v>-0.02627499666155862</v>
+        <v>-0.3783144496498463</v>
       </c>
       <c r="F43">
-        <v>-0.01300552593748719</v>
+        <v>-0.1023783525594109</v>
       </c>
       <c r="G43">
-        <v>-0.02652444445802074</v>
+        <v>-0.5692685073498654</v>
       </c>
       <c r="H43">
-        <v>-0.01194062263344317</v>
+        <v>0.2453855136214978</v>
       </c>
       <c r="I43">
-        <v>0.01347006181278633</v>
+        <v>0.3243797858743971</v>
       </c>
       <c r="J43">
-        <v>-0.004987479374257211</v>
+        <v>-0.1900063474697686</v>
       </c>
       <c r="K43">
-        <v>-0.0131934960775112</v>
+        <v>-0.3075222611050307</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1914,34 +1914,34 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.03572883020493568</v>
+        <v>-0.09501001203078764</v>
       </c>
       <c r="C44">
-        <v>0.0906433195786983</v>
+        <v>0.1766606002155945</v>
       </c>
       <c r="D44">
-        <v>-0.09608340541362674</v>
+        <v>-0.0780873558735108</v>
       </c>
       <c r="E44">
-        <v>-0.134149548275018</v>
+        <v>-0.3960852452412259</v>
       </c>
       <c r="F44">
-        <v>-0.04880941229351867</v>
+        <v>-0.001997914547677072</v>
       </c>
       <c r="G44">
-        <v>-0.1344881496452031</v>
+        <v>-0.2721424264925844</v>
       </c>
       <c r="H44">
-        <v>-0.1049323967256057</v>
+        <v>0.02239839432430431</v>
       </c>
       <c r="I44">
-        <v>0.09543517637021039</v>
+        <v>0.2794900868827022</v>
       </c>
       <c r="J44">
-        <v>-0.03527349111884064</v>
+        <v>-0.265994743776056</v>
       </c>
       <c r="K44">
-        <v>-0.09242407373009867</v>
+        <v>-0.359858836866662</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1949,34 +1949,34 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.008540657306501075</v>
+        <v>-0.1487888686397534</v>
       </c>
       <c r="C45">
-        <v>0.01571989068532217</v>
+        <v>0.2138730503884119</v>
       </c>
       <c r="D45">
-        <v>-0.01465174389785149</v>
+        <v>-0.2480946904559811</v>
       </c>
       <c r="E45">
-        <v>-0.02790890987026386</v>
+        <v>-0.4216583283937528</v>
       </c>
       <c r="F45">
-        <v>-0.008518136684759965</v>
+        <v>-0.0359868847245865</v>
       </c>
       <c r="G45">
-        <v>-0.03515631474186021</v>
+        <v>-0.4351099239711153</v>
       </c>
       <c r="H45">
-        <v>-0.01754131416149277</v>
+        <v>0.01225293874600021</v>
       </c>
       <c r="I45">
-        <v>0.01153103605252811</v>
+        <v>0.16710997352917</v>
       </c>
       <c r="J45">
-        <v>-0.004781350197897566</v>
+        <v>-0.1651004852777762</v>
       </c>
       <c r="K45">
-        <v>-0.006648296699289172</v>
+        <v>-0.260229728898869</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1984,34 +1984,34 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-8.631071571890564E-06</v>
+        <v>-0.008061003667935173</v>
       </c>
       <c r="C46">
-        <v>0.001534130828572492</v>
+        <v>0.01967145770147057</v>
       </c>
       <c r="D46">
-        <v>-0.0008073604018676388</v>
+        <v>-0.005364391135215996</v>
       </c>
       <c r="E46">
-        <v>-0.002689476566399888</v>
+        <v>-0.02429272363716707</v>
       </c>
       <c r="F46">
-        <v>-0.0007985825040183729</v>
+        <v>-0.007795240714101296</v>
       </c>
       <c r="G46">
-        <v>-0.003290220975179945</v>
+        <v>-0.03134488204913376</v>
       </c>
       <c r="H46">
-        <v>-0.002132603978790304</v>
+        <v>-0.01873640511001036</v>
       </c>
       <c r="I46">
-        <v>0.001279840673972472</v>
+        <v>0.01209221633411859</v>
       </c>
       <c r="J46">
-        <v>-0.0005241723586634823</v>
+        <v>-0.01427917471731546</v>
       </c>
       <c r="K46">
-        <v>-0.0008009685071227544</v>
+        <v>-0.006111965245330256</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2019,34 +2019,34 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.06205877783577859</v>
+        <v>-0.01145921377891562</v>
       </c>
       <c r="C47">
-        <v>0.1430436259892118</v>
+        <v>0.01152271047199923</v>
       </c>
       <c r="D47">
-        <v>-0.08381561076670714</v>
+        <v>-0.01790658494191089</v>
       </c>
       <c r="E47">
-        <v>-0.3423076506374464</v>
+        <v>-0.03238883187349636</v>
       </c>
       <c r="F47">
-        <v>-0.1651017225585855</v>
+        <v>-0.009927839214450018</v>
       </c>
       <c r="G47">
-        <v>-0.4847913683071421</v>
+        <v>-0.03676866156415675</v>
       </c>
       <c r="H47">
-        <v>-0.006336630417950026</v>
+        <v>-0.01395090269511622</v>
       </c>
       <c r="I47">
-        <v>0.07092999579823522</v>
+        <v>0.02059380209013097</v>
       </c>
       <c r="J47">
-        <v>-0.1425532103157202</v>
+        <v>-0.01424010413077231</v>
       </c>
       <c r="K47">
-        <v>-0.3331841937602274</v>
+        <v>-0.01468321382738243</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2054,34 +2054,34 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.005919671549915299</v>
+        <v>-0.001098864466090905</v>
       </c>
       <c r="C48">
-        <v>0.01437633165349425</v>
+        <v>0.001766324018447146</v>
       </c>
       <c r="D48">
-        <v>-0.003815312628025788</v>
+        <v>-0.001485592691754863</v>
       </c>
       <c r="E48">
-        <v>-0.02558949927739213</v>
+        <v>-0.003522349089602306</v>
       </c>
       <c r="F48">
-        <v>-0.007733931889824835</v>
+        <v>-0.001333966612336069</v>
       </c>
       <c r="G48">
-        <v>-0.0312383403425349</v>
+        <v>-0.003119522872750846</v>
       </c>
       <c r="H48">
-        <v>-0.01787558511597565</v>
+        <v>-0.001837762515443574</v>
       </c>
       <c r="I48">
-        <v>0.00470954106245283</v>
+        <v>0.001984738763340323</v>
       </c>
       <c r="J48">
-        <v>-0.005028148174757942</v>
+        <v>-0.001550992161484992</v>
       </c>
       <c r="K48">
-        <v>-0.006550303721429415</v>
+        <v>-0.001390840728971412</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2089,34 +2089,34 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.005687396650638889</v>
+        <v>-0.1097294159889766</v>
       </c>
       <c r="C49">
-        <v>0.01257500723601109</v>
+        <v>0.2466696300529165</v>
       </c>
       <c r="D49">
-        <v>-0.01131691666644321</v>
+        <v>-0.1288132379789319</v>
       </c>
       <c r="E49">
-        <v>-0.02695840973047136</v>
+        <v>-0.3299453868827877</v>
       </c>
       <c r="F49">
-        <v>-0.0112942470238357</v>
+        <v>0.05729392409854386</v>
       </c>
       <c r="G49">
-        <v>-0.02565018162202174</v>
+        <v>-0.4469658235951881</v>
       </c>
       <c r="H49">
-        <v>-0.01439374969975144</v>
+        <v>0.02858380831703437</v>
       </c>
       <c r="I49">
-        <v>0.009212384003210701</v>
+        <v>0.2437301341193218</v>
       </c>
       <c r="J49">
-        <v>-0.004809961792629998</v>
+        <v>-0.2908011036107507</v>
       </c>
       <c r="K49">
-        <v>-0.01008416096612648</v>
+        <v>-0.3379178846049642</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2124,34 +2124,34 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-9.454053145807536E-06</v>
+        <v>-0.00093247174632379</v>
       </c>
       <c r="C50">
-        <v>0.002043439687843666</v>
+        <v>0.001802125799141393</v>
       </c>
       <c r="D50">
-        <v>-0.001280635771806688</v>
+        <v>-0.001173621124261139</v>
       </c>
       <c r="E50">
-        <v>-0.002297481356909056</v>
+        <v>-0.002976791436574691</v>
       </c>
       <c r="F50">
-        <v>-0.001455742930923464</v>
+        <v>-0.00152088964312971</v>
       </c>
       <c r="G50">
-        <v>-0.003509605070799493</v>
+        <v>-0.002581589304885982</v>
       </c>
       <c r="H50">
-        <v>-0.001742058298077826</v>
+        <v>-0.001460456223004976</v>
       </c>
       <c r="I50">
-        <v>0.001173751243229789</v>
+        <v>0.0020211785560096</v>
       </c>
       <c r="J50">
-        <v>-0.0005235139179945673</v>
+        <v>-0.001555972287579921</v>
       </c>
       <c r="K50">
-        <v>-0.0009491591267602162</v>
+        <v>-0.001921685288452187</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2159,34 +2159,34 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-9.91989037560926E-06</v>
+        <v>-0.01068871957105243</v>
       </c>
       <c r="C51">
-        <v>0.0008584033724687433</v>
+        <v>0.01243489118307088</v>
       </c>
       <c r="D51">
-        <v>-0.001450516720815691</v>
+        <v>-0.01468483010962345</v>
       </c>
       <c r="E51">
-        <v>-0.002507471269876138</v>
+        <v>-0.0222924622210372</v>
       </c>
       <c r="F51">
-        <v>-0.001312137494924638</v>
+        <v>-0.01500925371175833</v>
       </c>
       <c r="G51">
-        <v>-0.003645332460193248</v>
+        <v>-0.03719816851779211</v>
       </c>
       <c r="H51">
-        <v>-0.00207977950597405</v>
+        <v>-0.01991785829598544</v>
       </c>
       <c r="I51">
-        <v>0.001172045886259076</v>
+        <v>0.01464585908337856</v>
       </c>
       <c r="J51">
-        <v>-0.0005261539133698249</v>
+        <v>-0.01421138328331969</v>
       </c>
       <c r="K51">
-        <v>-0.0009110732195513288</v>
+        <v>-0.01990518606139106</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2194,34 +2194,34 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.001000147827708895</v>
+        <v>-0.1684943746302452</v>
       </c>
       <c r="C52">
-        <v>0.001141238004173636</v>
+        <v>0.4010681220489222</v>
       </c>
       <c r="D52">
-        <v>-0.001623001072052368</v>
+        <v>-0.08588696976687586</v>
       </c>
       <c r="E52">
-        <v>-0.002612699273103372</v>
+        <v>-0.5524953709501815</v>
       </c>
       <c r="F52">
-        <v>-0.001959923254746394</v>
+        <v>-0.08962592589291719</v>
       </c>
       <c r="G52">
-        <v>-0.003547902531265724</v>
+        <v>-0.4073110769862294</v>
       </c>
       <c r="H52">
-        <v>-0.002353211923597907</v>
+        <v>0.08639730236595379</v>
       </c>
       <c r="I52">
-        <v>0.001669807218512053</v>
+        <v>0.2496698652085216</v>
       </c>
       <c r="J52">
-        <v>-0.0005218389689170287</v>
+        <v>-0.1987301154594723</v>
       </c>
       <c r="K52">
-        <v>-0.001439202468096968</v>
+        <v>-0.4236937455226022</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2229,34 +2229,34 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.006979206785719957</v>
+        <v>-0.006707313766746998</v>
       </c>
       <c r="C53">
-        <v>0.01186615971361053</v>
+        <v>0.01363074184003305</v>
       </c>
       <c r="D53">
-        <v>-0.00934928932306169</v>
+        <v>-0.008060783797427239</v>
       </c>
       <c r="E53">
-        <v>-0.02538993020952353</v>
+        <v>-0.02641510589355861</v>
       </c>
       <c r="F53">
-        <v>-0.008574371593797217</v>
+        <v>-0.006951445926405775</v>
       </c>
       <c r="G53">
-        <v>-0.02722311476162671</v>
+        <v>-0.02704933471336029</v>
       </c>
       <c r="H53">
-        <v>-0.01442783898581972</v>
+        <v>-0.01340851228095786</v>
       </c>
       <c r="I53">
-        <v>0.02097081425068022</v>
+        <v>0.01153799289502078</v>
       </c>
       <c r="J53">
-        <v>-0.005040955832979646</v>
+        <v>-0.0142638908635635</v>
       </c>
       <c r="K53">
-        <v>-0.01648066759423125</v>
+        <v>-0.008355349494934</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2264,34 +2264,34 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-1.740017226851225E-05</v>
+        <v>-0.1270513910741867</v>
       </c>
       <c r="C54">
-        <v>0.0009889838949480557</v>
+        <v>0.2438862234680258</v>
       </c>
       <c r="D54">
-        <v>-0.001286521941056309</v>
+        <v>-0.1283952596865626</v>
       </c>
       <c r="E54">
-        <v>-0.001556929943188515</v>
+        <v>-0.3814545912872843</v>
       </c>
       <c r="F54">
-        <v>-0.001215032904021418</v>
+        <v>-0.08531492777254136</v>
       </c>
       <c r="G54">
-        <v>-0.003036133552039019</v>
+        <v>-0.3152883167532756</v>
       </c>
       <c r="H54">
-        <v>-0.001559839610505939</v>
+        <v>-0.1537130340973948</v>
       </c>
       <c r="I54">
-        <v>0.001202759725302221</v>
+        <v>0.2312329502291568</v>
       </c>
       <c r="J54">
-        <v>-0.0005287928844130328</v>
+        <v>-0.1193343281414159</v>
       </c>
       <c r="K54">
-        <v>-0.001520539520827784</v>
+        <v>-0.1619140350870316</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2299,34 +2299,34 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.005343047296471207</v>
+        <v>-0.1376231303818417</v>
       </c>
       <c r="C55">
-        <v>0.01407503036053292</v>
+        <v>0.2196437576608759</v>
       </c>
       <c r="D55">
-        <v>-0.005788588759057895</v>
+        <v>-0.195968215707083</v>
       </c>
       <c r="E55">
-        <v>-0.02057926990699858</v>
+        <v>-0.4285422129505667</v>
       </c>
       <c r="F55">
-        <v>-0.002088051219829418</v>
+        <v>-0.07074883787236333</v>
       </c>
       <c r="G55">
-        <v>-0.02980697352076212</v>
+        <v>-0.3795387773667585</v>
       </c>
       <c r="H55">
-        <v>-0.01830146066539885</v>
+        <v>0.005511336365927827</v>
       </c>
       <c r="I55">
-        <v>0.01228718686814648</v>
+        <v>0.3188167274802511</v>
       </c>
       <c r="J55">
-        <v>-0.005040545417849962</v>
+        <v>-0.2926358292531725</v>
       </c>
       <c r="K55">
-        <v>-0.009648235518616429</v>
+        <v>-0.4107982899925481</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2334,34 +2334,34 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.00662838524117458</v>
+        <v>-0.1084101628793049</v>
       </c>
       <c r="C56">
-        <v>0.01183394030881942</v>
+        <v>0.2009471811149804</v>
       </c>
       <c r="D56">
-        <v>-0.01658555434500015</v>
+        <v>-0.06164288858903312</v>
       </c>
       <c r="E56">
-        <v>-0.02158704836309995</v>
+        <v>-0.3265338291990874</v>
       </c>
       <c r="F56">
-        <v>-0.009035789846417624</v>
+        <v>0.0006906344669335499</v>
       </c>
       <c r="G56">
-        <v>-0.0288878207153184</v>
+        <v>-0.4086014192743498</v>
       </c>
       <c r="H56">
-        <v>-0.0201089941591939</v>
+        <v>-0.1037107340329472</v>
       </c>
       <c r="I56">
-        <v>0.01286894350655349</v>
+        <v>0.1718464501447498</v>
       </c>
       <c r="J56">
-        <v>-0.004938768684190165</v>
+        <v>-0.2179425729080879</v>
       </c>
       <c r="K56">
-        <v>-0.01084616525848245</v>
+        <v>-0.3008397607815589</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2369,34 +2369,34 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.001038648814909864</v>
+        <v>-1.272890769535564E-05</v>
       </c>
       <c r="C57">
-        <v>0.001310573406002113</v>
+        <v>0.0005975585026645943</v>
       </c>
       <c r="D57">
-        <v>-0.00210032633933361</v>
+        <v>-0.001774591279738944</v>
       </c>
       <c r="E57">
-        <v>-0.001874525077890976</v>
+        <v>-0.002478885744461446</v>
       </c>
       <c r="F57">
-        <v>-0.00106940146459133</v>
+        <v>-0.001741984271821392</v>
       </c>
       <c r="G57">
-        <v>-0.003635933041255469</v>
+        <v>-0.003188490515177635</v>
       </c>
       <c r="H57">
-        <v>-0.00239323028713663</v>
+        <v>-0.002120616975524888</v>
       </c>
       <c r="I57">
-        <v>0.001705772336768322</v>
+        <v>0.001255061142109977</v>
       </c>
       <c r="J57">
-        <v>-0.0005236137231954967</v>
+        <v>-0.001550533209507753</v>
       </c>
       <c r="K57">
-        <v>-0.002384155835252109</v>
+        <v>-0.000797263035464133</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2404,34 +2404,34 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.04211873571309217</v>
+        <v>-0.1186081347238097</v>
       </c>
       <c r="C58">
-        <v>0.1277822166138585</v>
+        <v>0.2141124301181114</v>
       </c>
       <c r="D58">
-        <v>-0.08431888084879043</v>
+        <v>-0.09411638039440307</v>
       </c>
       <c r="E58">
-        <v>-0.1801543235150221</v>
+        <v>-0.4019567636643561</v>
       </c>
       <c r="F58">
-        <v>-0.03593986503119558</v>
+        <v>0.04405905426681245</v>
       </c>
       <c r="G58">
-        <v>-0.125854840808927</v>
+        <v>-0.4533698878805443</v>
       </c>
       <c r="H58">
-        <v>-0.0739639512624581</v>
+        <v>-0.01819318329213366</v>
       </c>
       <c r="I58">
-        <v>0.08914668815767139</v>
+        <v>0.1719308706532484</v>
       </c>
       <c r="J58">
-        <v>-0.03675112478615877</v>
+        <v>-0.3113725133752047</v>
       </c>
       <c r="K58">
-        <v>-0.1046694620737812</v>
+        <v>-0.468022175620528</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2439,34 +2439,34 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.006565451560570804</v>
+        <v>-0.1410825473536706</v>
       </c>
       <c r="C59">
-        <v>0.01342401831396684</v>
+        <v>0.3920919990326037</v>
       </c>
       <c r="D59">
-        <v>-0.01106251694451015</v>
+        <v>-0.2388781819010043</v>
       </c>
       <c r="E59">
-        <v>-0.02746614723702556</v>
+        <v>-0.3510039186744803</v>
       </c>
       <c r="F59">
-        <v>-0.01340505709456635</v>
+        <v>-0.06691742688962124</v>
       </c>
       <c r="G59">
-        <v>-0.02516952316110616</v>
+        <v>-0.4092469826181907</v>
       </c>
       <c r="H59">
-        <v>-0.01687247184474928</v>
+        <v>0.04791903335817957</v>
       </c>
       <c r="I59">
-        <v>0.01461460592338696</v>
+        <v>0.2002988407766861</v>
       </c>
       <c r="J59">
-        <v>-0.004931275716182797</v>
+        <v>-0.2839063522395097</v>
       </c>
       <c r="K59">
-        <v>-0.01006248473346704</v>
+        <v>-0.5246410684444534</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2474,34 +2474,34 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.004911994918098174</v>
+        <v>-0.00840354663855227</v>
       </c>
       <c r="C60">
-        <v>0.01090570261911137</v>
+        <v>0.01510880845370367</v>
       </c>
       <c r="D60">
-        <v>-0.01188403401288572</v>
+        <v>-0.01232453867770198</v>
       </c>
       <c r="E60">
-        <v>-0.0250220458833674</v>
+        <v>-0.03062623263731687</v>
       </c>
       <c r="F60">
-        <v>-0.01496270311913163</v>
+        <v>-0.01353344523394803</v>
       </c>
       <c r="G60">
-        <v>-0.02361665231315116</v>
+        <v>-0.02537376810230741</v>
       </c>
       <c r="H60">
-        <v>-0.01300689345901203</v>
+        <v>-0.01606773355831696</v>
       </c>
       <c r="I60">
-        <v>0.009580053882677941</v>
+        <v>0.01328267286438329</v>
       </c>
       <c r="J60">
-        <v>-0.004815542046012296</v>
+        <v>-0.01408898744173652</v>
       </c>
       <c r="K60">
-        <v>-0.004657646823727968</v>
+        <v>-0.01182528639392543</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2509,34 +2509,34 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-8.271209263304709E-06</v>
+        <v>-0.03666648424590612</v>
       </c>
       <c r="C61">
-        <v>0.001500517763722134</v>
+        <v>0.1133998116744737</v>
       </c>
       <c r="D61">
-        <v>-0.0008962056413295834</v>
+        <v>-0.06203501922554883</v>
       </c>
       <c r="E61">
-        <v>-0.002650959512172194</v>
+        <v>-0.09368845233460633</v>
       </c>
       <c r="F61">
-        <v>-0.0009081292189379643</v>
+        <v>-0.05036080106276374</v>
       </c>
       <c r="G61">
-        <v>-0.002686433998627233</v>
+        <v>-0.1358543398723201</v>
       </c>
       <c r="H61">
-        <v>-0.001942535495488295</v>
+        <v>-0.1052907021374018</v>
       </c>
       <c r="I61">
-        <v>0.001627833480402414</v>
+        <v>0.07564410908412458</v>
       </c>
       <c r="J61">
-        <v>-0.0005260440806908076</v>
+        <v>-0.08273456741678148</v>
       </c>
       <c r="K61">
-        <v>-0.001665152038150508</v>
+        <v>-0.04933298168598655</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2544,34 +2544,34 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-8.697707235268335E-06</v>
+        <v>-0.10465483461324</v>
       </c>
       <c r="C62">
-        <v>0.0008885009256098341</v>
+        <v>0.1867741423153173</v>
       </c>
       <c r="D62">
-        <v>-0.001334953789278576</v>
+        <v>-0.2750482912469699</v>
       </c>
       <c r="E62">
-        <v>-0.00253426540494556</v>
+        <v>-0.3858408196539772</v>
       </c>
       <c r="F62">
-        <v>-0.0008914367844550873</v>
+        <v>-0.09740985341999821</v>
       </c>
       <c r="G62">
-        <v>-0.003260743017608778</v>
+        <v>-0.3295503098476078</v>
       </c>
       <c r="H62">
-        <v>-0.001971100532725253</v>
+        <v>-0.0119060111437334</v>
       </c>
       <c r="I62">
-        <v>0.001434028220948149</v>
+        <v>0.1698624605596822</v>
       </c>
       <c r="J62">
-        <v>-0.0005266163669158761</v>
+        <v>-0.1673434921383488</v>
       </c>
       <c r="K62">
-        <v>-0.001010160633996274</v>
+        <v>-0.2256166021171884</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2579,34 +2579,34 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-7.526311606140291E-06</v>
+        <v>-0.0009753235562028337</v>
       </c>
       <c r="C63">
-        <v>0.001165554212568039</v>
+        <v>0.001974382718706678</v>
       </c>
       <c r="D63">
-        <v>-0.001279615706615852</v>
+        <v>-0.0013123293603566</v>
       </c>
       <c r="E63">
-        <v>-0.002457747015160501</v>
+        <v>-0.003634505042168602</v>
       </c>
       <c r="F63">
-        <v>-0.0008456138178532495</v>
+        <v>-0.0007597130640059843</v>
       </c>
       <c r="G63">
-        <v>-0.002722870184705358</v>
+        <v>-0.00286718601505004</v>
       </c>
       <c r="H63">
-        <v>-0.001638533320639872</v>
+        <v>-0.001404700516200121</v>
       </c>
       <c r="I63">
-        <v>0.001914907678813319</v>
+        <v>0.001939489106081869</v>
       </c>
       <c r="J63">
-        <v>-0.0005255160498942626</v>
+        <v>-0.001553708427809256</v>
       </c>
       <c r="K63">
-        <v>-0.001797096066348778</v>
+        <v>-0.0006688830659609886</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2614,34 +2614,34 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.006693258687655735</v>
+        <v>-0.04337818607466465</v>
       </c>
       <c r="C64">
-        <v>0.02206357535287055</v>
+        <v>0.1192598021573592</v>
       </c>
       <c r="D64">
-        <v>-0.009174454690208094</v>
+        <v>-0.04417544610186631</v>
       </c>
       <c r="E64">
-        <v>-0.02429447168638775</v>
+        <v>-0.1681086252409977</v>
       </c>
       <c r="F64">
-        <v>-0.008308931271635771</v>
+        <v>-0.03439668440590711</v>
       </c>
       <c r="G64">
-        <v>-0.03197967444038211</v>
+        <v>-0.1232415404511106</v>
       </c>
       <c r="H64">
-        <v>-0.009664597491155183</v>
+        <v>-0.07838253064645788</v>
       </c>
       <c r="I64">
-        <v>0.009750183895808456</v>
+        <v>0.08851741724687089</v>
       </c>
       <c r="J64">
-        <v>-0.004940386095688665</v>
+        <v>-0.08160549998971732</v>
       </c>
       <c r="K64">
-        <v>-0.008213586827194542</v>
+        <v>-0.05963713506998576</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2649,34 +2649,34 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.008105891156668054</v>
+        <v>-0.09723151217638756</v>
       </c>
       <c r="C65">
-        <v>0.01167217819978172</v>
+        <v>0.1924192648690102</v>
       </c>
       <c r="D65">
-        <v>-0.01021143737207031</v>
+        <v>-0.1786606416662697</v>
       </c>
       <c r="E65">
-        <v>-0.02709334312467673</v>
+        <v>-0.3779764891017884</v>
       </c>
       <c r="F65">
-        <v>-0.009907886053831588</v>
+        <v>-0.008334283132718062</v>
       </c>
       <c r="G65">
-        <v>-0.03373029827902942</v>
+        <v>-0.2845754404060818</v>
       </c>
       <c r="H65">
-        <v>-0.0137756103512072</v>
+        <v>-0.008001402174124957</v>
       </c>
       <c r="I65">
-        <v>0.01492124839761708</v>
+        <v>0.267357775572622</v>
       </c>
       <c r="J65">
-        <v>-0.004993545089957489</v>
+        <v>-0.2157039607801938</v>
       </c>
       <c r="K65">
-        <v>-0.01752990706260142</v>
+        <v>-0.2939276249681938</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2684,34 +2684,34 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.03816916791789687</v>
+        <v>-0.06156889625476862</v>
       </c>
       <c r="C66">
-        <v>0.09492769826225397</v>
+        <v>0.08997649046006809</v>
       </c>
       <c r="D66">
-        <v>-0.05609520193571194</v>
+        <v>-0.09212706358816022</v>
       </c>
       <c r="E66">
-        <v>-0.1767243026137611</v>
+        <v>-0.1798886614314568</v>
       </c>
       <c r="F66">
-        <v>-0.07479701578296948</v>
+        <v>-0.03689103637189142</v>
       </c>
       <c r="G66">
-        <v>-0.1491860497189788</v>
+        <v>-0.1479421216918976</v>
       </c>
       <c r="H66">
-        <v>-0.09687904252307475</v>
+        <v>-0.1325391026967179</v>
       </c>
       <c r="I66">
-        <v>0.03174733218441077</v>
+        <v>0.07949075413694576</v>
       </c>
       <c r="J66">
-        <v>-0.02884362894150314</v>
+        <v>-0.07206387154823841</v>
       </c>
       <c r="K66">
-        <v>-0.07038784412145882</v>
+        <v>-0.1461769130612478</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2719,34 +2719,34 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.005583090379176062</v>
+        <v>-0.1219226993763514</v>
       </c>
       <c r="C67">
-        <v>0.01343048225557076</v>
+        <v>0.2010176558444608</v>
       </c>
       <c r="D67">
-        <v>-0.009485389933886038</v>
+        <v>-0.2612110389645594</v>
       </c>
       <c r="E67">
-        <v>-0.02478780386192161</v>
+        <v>-0.4516376613226222</v>
       </c>
       <c r="F67">
-        <v>-0.009794756242558825</v>
+        <v>0.01067651583745239</v>
       </c>
       <c r="G67">
-        <v>-0.02821424384526826</v>
+        <v>-0.3539518832572529</v>
       </c>
       <c r="H67">
-        <v>-0.0181324719992822</v>
+        <v>0.002407800700377119</v>
       </c>
       <c r="I67">
-        <v>0.006464799014396908</v>
+        <v>0.1973726320226862</v>
       </c>
       <c r="J67">
-        <v>-0.004960634753425721</v>
+        <v>-0.1838530985822722</v>
       </c>
       <c r="K67">
-        <v>-0.005999451840781448</v>
+        <v>-0.2668875235786303</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2754,34 +2754,34 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.004309730878458559</v>
+        <v>-8.709966890160331E-06</v>
       </c>
       <c r="C68">
-        <v>0.01253527817678008</v>
+        <v>0.001508012027086411</v>
       </c>
       <c r="D68">
-        <v>-0.009058409646979642</v>
+        <v>-0.001146744857619822</v>
       </c>
       <c r="E68">
-        <v>-0.01154353188964907</v>
+        <v>-0.003050897264042664</v>
       </c>
       <c r="F68">
-        <v>-0.007333333321093854</v>
+        <v>-0.001053911227966781</v>
       </c>
       <c r="G68">
-        <v>-0.03101719755161352</v>
+        <v>-0.002333435440753556</v>
       </c>
       <c r="H68">
-        <v>-0.01415369981630307</v>
+        <v>-0.0005853513623968851</v>
       </c>
       <c r="I68">
-        <v>0.01190680237997719</v>
+        <v>0.0009262519285320707</v>
       </c>
       <c r="J68">
-        <v>-0.005064603488722957</v>
+        <v>-0.001554639032634837</v>
       </c>
       <c r="K68">
-        <v>-0.009737370391580883</v>
+        <v>-0.001118931823360025</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2789,34 +2789,34 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-9.798144724921751E-06</v>
+        <v>-0.1652151027745846</v>
       </c>
       <c r="C69">
-        <v>0.001246214917096433</v>
+        <v>0.3628483318270745</v>
       </c>
       <c r="D69">
-        <v>-0.002224969129949825</v>
+        <v>-0.1638147813349513</v>
       </c>
       <c r="E69">
-        <v>-0.003021506856802396</v>
+        <v>-0.577199211617334</v>
       </c>
       <c r="F69">
-        <v>-0.0005517302689016075</v>
+        <v>-0.1628218068459666</v>
       </c>
       <c r="G69">
-        <v>-0.003228867006456397</v>
+        <v>-0.2684113524784683</v>
       </c>
       <c r="H69">
-        <v>-0.001519401652532607</v>
+        <v>-0.04738497671451505</v>
       </c>
       <c r="I69">
-        <v>0.001117744891576376</v>
+        <v>0.220956588724129</v>
       </c>
       <c r="J69">
-        <v>-0.0005243031503686516</v>
+        <v>-0.2645171956061138</v>
       </c>
       <c r="K69">
-        <v>-0.001531615158479682</v>
+        <v>-0.4568698392407524</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2824,34 +2824,34 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.005739221967403749</v>
+        <v>-0.1061451592228344</v>
       </c>
       <c r="C70">
-        <v>0.00807726914123302</v>
+        <v>0.2755528770711323</v>
       </c>
       <c r="D70">
-        <v>-0.01256801473607957</v>
+        <v>-0.1274740070579548</v>
       </c>
       <c r="E70">
-        <v>-0.02159387268644105</v>
+        <v>-0.3175754950847264</v>
       </c>
       <c r="F70">
-        <v>-0.01452421288416304</v>
+        <v>0.04697891345062873</v>
       </c>
       <c r="G70">
-        <v>-0.02339733052244859</v>
+        <v>-0.3243671457463428</v>
       </c>
       <c r="H70">
-        <v>-0.02015866480841546</v>
+        <v>-0.05694647928071341</v>
       </c>
       <c r="I70">
-        <v>0.01155125913287906</v>
+        <v>0.386694843599972</v>
       </c>
       <c r="J70">
-        <v>-0.00496505275664747</v>
+        <v>-0.2991084865796529</v>
       </c>
       <c r="K70">
-        <v>-0.0155481953046791</v>
+        <v>-0.2099844567938678</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2859,34 +2859,34 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-9.416377315797749E-06</v>
+        <v>-1.186634787909649E-05</v>
       </c>
       <c r="C71">
-        <v>0.001813591875795082</v>
+        <v>0.0009242789317201799</v>
       </c>
       <c r="D71">
-        <v>-0.001394466068099953</v>
+        <v>-0.001772042391563721</v>
       </c>
       <c r="E71">
-        <v>-0.003161980587216612</v>
+        <v>-0.002416161447724468</v>
       </c>
       <c r="F71">
-        <v>-0.001349616551588679</v>
+        <v>-0.001403751952681672</v>
       </c>
       <c r="G71">
-        <v>-0.002812878820398881</v>
+        <v>-0.003231470059330724</v>
       </c>
       <c r="H71">
-        <v>-0.00158790045277357</v>
+        <v>-0.001488180335939675</v>
       </c>
       <c r="I71">
-        <v>0.001002091427951026</v>
+        <v>0.00153309136753496</v>
       </c>
       <c r="J71">
-        <v>-0.0005257318575434173</v>
+        <v>-0.001551401739596991</v>
       </c>
       <c r="K71">
-        <v>-0.001394820732493968</v>
+        <v>-0.00182837295856331</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2894,34 +2894,34 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-8.573003925833982E-06</v>
+        <v>-0.06812433242560421</v>
       </c>
       <c r="C72">
-        <v>0.001296668670973064</v>
+        <v>0.1491932568900687</v>
       </c>
       <c r="D72">
-        <v>-0.0009496399640410351</v>
+        <v>-0.07337421669637029</v>
       </c>
       <c r="E72">
-        <v>-0.002834880617383576</v>
+        <v>-0.3062289821204556</v>
       </c>
       <c r="F72">
-        <v>-0.001454766933806906</v>
+        <v>-0.09042549450548637</v>
       </c>
       <c r="G72">
-        <v>-0.002796664478067686</v>
+        <v>-0.1769111055805526</v>
       </c>
       <c r="H72">
-        <v>-0.00182045756359144</v>
+        <v>-0.1303993815498898</v>
       </c>
       <c r="I72">
-        <v>0.001685752531327145</v>
+        <v>0.09089086307970157</v>
       </c>
       <c r="J72">
-        <v>-0.0005236910566134361</v>
+        <v>-0.1573561695618554</v>
       </c>
       <c r="K72">
-        <v>-0.001570843624635761</v>
+        <v>-0.1977905450622539</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2929,34 +2929,34 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.0848065640404702</v>
+        <v>-0.05373007931735627</v>
       </c>
       <c r="C73">
-        <v>0.1424353220985043</v>
+        <v>0.1068911201134119</v>
       </c>
       <c r="D73">
-        <v>-0.1013950125320769</v>
+        <v>-0.05110297486329039</v>
       </c>
       <c r="E73">
-        <v>-0.2935891469436371</v>
+        <v>-0.2039922626472966</v>
       </c>
       <c r="F73">
-        <v>-0.06712747375282781</v>
+        <v>-0.07137038657660244</v>
       </c>
       <c r="G73">
-        <v>-0.3620563962699022</v>
+        <v>-0.1653913704579137</v>
       </c>
       <c r="H73">
-        <v>-0.1902550866427829</v>
+        <v>-0.05999476320551452</v>
       </c>
       <c r="I73">
-        <v>0.2716506852992341</v>
+        <v>0.06090932549666087</v>
       </c>
       <c r="J73">
-        <v>-0.0897534390294952</v>
+        <v>-0.07151597533074286</v>
       </c>
       <c r="K73">
-        <v>-0.2177952008054352</v>
+        <v>-0.09912312896378947</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2964,34 +2964,34 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-2.730637852404021E-06</v>
+        <v>-0.00875647703688928</v>
       </c>
       <c r="C74">
-        <v>0.0009883860424978119</v>
+        <v>0.02127302556757732</v>
       </c>
       <c r="D74">
-        <v>-0.00108510517698545</v>
+        <v>-0.008673705043347761</v>
       </c>
       <c r="E74">
-        <v>-0.002308482449539043</v>
+        <v>-0.03202883667942368</v>
       </c>
       <c r="F74">
-        <v>-0.0009132052820614914</v>
+        <v>-0.00232000300575022</v>
       </c>
       <c r="G74">
-        <v>-0.002568696672966565</v>
+        <v>-0.02983503319117745</v>
       </c>
       <c r="H74">
-        <v>-0.002134771152957828</v>
+        <v>-0.01316481536025219</v>
       </c>
       <c r="I74">
-        <v>0.001349896924159888</v>
+        <v>0.01298725780051648</v>
       </c>
       <c r="J74">
-        <v>-0.0005255820252692043</v>
+        <v>-0.01426932383845018</v>
       </c>
       <c r="K74">
-        <v>-0.001274490612684738</v>
+        <v>-0.006314800063013718</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2999,34 +2999,34 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-9.295878295982833E-06</v>
+        <v>-1.246692556525783E-05</v>
       </c>
       <c r="C75">
-        <v>0.0009663872659121344</v>
+        <v>0.001531197377570188</v>
       </c>
       <c r="D75">
-        <v>-0.001265880551867913</v>
+        <v>-0.001180804538835236</v>
       </c>
       <c r="E75">
-        <v>-0.002150621906534926</v>
+        <v>-0.002983963923978521</v>
       </c>
       <c r="F75">
-        <v>-0.0005373878824960576</v>
+        <v>-0.0008575536571726173</v>
       </c>
       <c r="G75">
-        <v>-0.003283307229128342</v>
+        <v>-0.003299401001492872</v>
       </c>
       <c r="H75">
-        <v>-0.002489765572593878</v>
+        <v>-0.001734497639681316</v>
       </c>
       <c r="I75">
-        <v>0.001664056355484877</v>
+        <v>0.001949104530535613</v>
       </c>
       <c r="J75">
-        <v>-0.0005263255980089153</v>
+        <v>-0.001552628373031354</v>
       </c>
       <c r="K75">
-        <v>-0.001738832761311373</v>
+        <v>-0.001041487326442461</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3034,34 +3034,34 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.005593991615740639</v>
+        <v>-0.0824280381751013</v>
       </c>
       <c r="C76">
-        <v>0.01559346356082009</v>
+        <v>0.1756279015343329</v>
       </c>
       <c r="D76">
-        <v>-0.009096408418515724</v>
+        <v>-0.1309233525978613</v>
       </c>
       <c r="E76">
-        <v>-0.03058433794169779</v>
+        <v>-0.3384412885210912</v>
       </c>
       <c r="F76">
-        <v>-0.01050684519419214</v>
+        <v>0.01448682997877234</v>
       </c>
       <c r="G76">
-        <v>-0.02413245502883809</v>
+        <v>-0.2360026425536059</v>
       </c>
       <c r="H76">
-        <v>-0.008564834773945366</v>
+        <v>-0.1184605843311026</v>
       </c>
       <c r="I76">
-        <v>0.01055085646682481</v>
+        <v>0.2078224322283339</v>
       </c>
       <c r="J76">
-        <v>-0.004983373075371723</v>
+        <v>-0.1613185717484838</v>
       </c>
       <c r="K76">
-        <v>-0.007262556443145749</v>
+        <v>-0.02755560345008276</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3069,34 +3069,34 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-8.533991846134381E-06</v>
+        <v>-0.05967148829208744</v>
       </c>
       <c r="C77">
-        <v>0.001516450413266858</v>
+        <v>0.1150202331541708</v>
       </c>
       <c r="D77">
-        <v>-0.0009590458049809787</v>
+        <v>-0.08532641756405165</v>
       </c>
       <c r="E77">
-        <v>-0.002747883649297702</v>
+        <v>-0.2060756665492914</v>
       </c>
       <c r="F77">
-        <v>-0.000871412054308446</v>
+        <v>-0.1005766436522169</v>
       </c>
       <c r="G77">
-        <v>-0.003099817623168406</v>
+        <v>-0.1306341168882169</v>
       </c>
       <c r="H77">
-        <v>-0.00149637883821519</v>
+        <v>-0.06488227390629521</v>
       </c>
       <c r="I77">
-        <v>0.001392414915863312</v>
+        <v>0.08197451646688694</v>
       </c>
       <c r="J77">
-        <v>-0.0005260964329074566</v>
+        <v>-0.07335508495898187</v>
       </c>
       <c r="K77">
-        <v>-0.001594757484857877</v>
+        <v>-0.1126183402010691</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3104,34 +3104,34 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.002332683695263315</v>
+        <v>-0.05558908184714524</v>
       </c>
       <c r="C78">
-        <v>0.2923043389141451</v>
+        <v>0.1009436389244881</v>
       </c>
       <c r="D78">
-        <v>-0.03685709039339013</v>
+        <v>-0.05564986220073789</v>
       </c>
       <c r="E78">
-        <v>-0.4443018607815806</v>
+        <v>-0.1686175788925101</v>
       </c>
       <c r="F78">
-        <v>-0.1569737703592571</v>
+        <v>-0.06590176485770911</v>
       </c>
       <c r="G78">
-        <v>-0.2815186806378289</v>
+        <v>-0.1457377951921873</v>
       </c>
       <c r="H78">
-        <v>-0.2763040137208507</v>
+        <v>-0.07627532905378834</v>
       </c>
       <c r="I78">
-        <v>0.04476510318874119</v>
+        <v>0.1313687541653188</v>
       </c>
       <c r="J78">
-        <v>-0.3283581448774278</v>
+        <v>-0.08077855797596713</v>
       </c>
       <c r="K78">
-        <v>-0.3617458110601585</v>
+        <v>-0.1188538736899637</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3139,34 +3139,34 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.004981267173039704</v>
+        <v>-0.1458440902945329</v>
       </c>
       <c r="C79">
-        <v>0.01465893356681735</v>
+        <v>0.3775522191689121</v>
       </c>
       <c r="D79">
-        <v>-0.009806357512347305</v>
+        <v>-0.1349616254172035</v>
       </c>
       <c r="E79">
-        <v>-0.02381496146328154</v>
+        <v>-0.2343897031535304</v>
       </c>
       <c r="F79">
-        <v>-0.003046035058375237</v>
+        <v>-0.1010601595865958</v>
       </c>
       <c r="G79">
-        <v>-0.02643923226405595</v>
+        <v>-0.5921034589108529</v>
       </c>
       <c r="H79">
-        <v>-0.009098984143921742</v>
+        <v>0.1279328649913966</v>
       </c>
       <c r="I79">
-        <v>0.01596779032813155</v>
+        <v>0.1836615807399639</v>
       </c>
       <c r="J79">
-        <v>-0.005077096743322781</v>
+        <v>-0.2828278208854511</v>
       </c>
       <c r="K79">
-        <v>-0.01005142830340398</v>
+        <v>-0.435299677549882</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3174,34 +3174,34 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.04341705214030883</v>
+        <v>-0.1508139513901942</v>
       </c>
       <c r="C80">
-        <v>0.08543154409991803</v>
+        <v>0.2775746490891207</v>
       </c>
       <c r="D80">
-        <v>-0.05984309952935336</v>
+        <v>-0.2493449003993267</v>
       </c>
       <c r="E80">
-        <v>-0.148036196080448</v>
+        <v>-0.4897459848774939</v>
       </c>
       <c r="F80">
-        <v>-0.0222637284460582</v>
+        <v>-0.1077973210722507</v>
       </c>
       <c r="G80">
-        <v>-0.1638334607627289</v>
+        <v>-0.4545087362827705</v>
       </c>
       <c r="H80">
-        <v>-0.1630491073370967</v>
+        <v>0.1355689698677056</v>
       </c>
       <c r="I80">
-        <v>0.048621399942945</v>
+        <v>0.2897359012064487</v>
       </c>
       <c r="J80">
-        <v>-0.03452876014613175</v>
+        <v>-0.2092590477408733</v>
       </c>
       <c r="K80">
-        <v>-0.08235486601500315</v>
+        <v>-0.2565747782370564</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3209,34 +3209,34 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.00987636622958655</v>
+        <v>-0.000971532151121685</v>
       </c>
       <c r="C81">
-        <v>0.0131398858974179</v>
+        <v>0.002052146515299803</v>
       </c>
       <c r="D81">
-        <v>-0.01396485605484284</v>
+        <v>-0.0007956190879546549</v>
       </c>
       <c r="E81">
-        <v>-0.02936841279383488</v>
+        <v>-0.003256443529382816</v>
       </c>
       <c r="F81">
-        <v>-0.01392610353929932</v>
+        <v>-0.001444416317612962</v>
       </c>
       <c r="G81">
-        <v>-0.03286776225188104</v>
+        <v>-0.003456353791231934</v>
       </c>
       <c r="H81">
-        <v>-0.015585149141878</v>
+        <v>-0.001208960590514491</v>
       </c>
       <c r="I81">
-        <v>0.01977767290173164</v>
+        <v>0.001003697861998066</v>
       </c>
       <c r="J81">
-        <v>-0.00486778374557054</v>
+        <v>-0.001552470185532828</v>
       </c>
       <c r="K81">
-        <v>-0.01677510470547304</v>
+        <v>-0.001345524902330989</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3244,34 +3244,34 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.007801737992654287</v>
+        <v>-0.1109084066297309</v>
       </c>
       <c r="C82">
-        <v>0.01821855708077612</v>
+        <v>0.2429303829321241</v>
       </c>
       <c r="D82">
-        <v>-0.006356228611940055</v>
+        <v>-0.03689759306473701</v>
       </c>
       <c r="E82">
-        <v>-0.02918944491514113</v>
+        <v>-0.3919798989315107</v>
       </c>
       <c r="F82">
-        <v>-0.01040167296637265</v>
+        <v>0.1587915605234898</v>
       </c>
       <c r="G82">
-        <v>-0.02606381582047471</v>
+        <v>-0.3042756434047955</v>
       </c>
       <c r="H82">
-        <v>-0.01656146117265658</v>
+        <v>-0.03105317938238588</v>
       </c>
       <c r="I82">
-        <v>0.01791577987541835</v>
+        <v>0.4927466320994967</v>
       </c>
       <c r="J82">
-        <v>-0.004913327556821439</v>
+        <v>-0.3394908100467043</v>
       </c>
       <c r="K82">
-        <v>-0.01477659196635769</v>
+        <v>-0.248061858885195</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3279,34 +3279,34 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.009049604287267261</v>
+        <v>-1.051291825945096E-05</v>
       </c>
       <c r="C83">
-        <v>0.01904090438562977</v>
+        <v>0.001635068687322257</v>
       </c>
       <c r="D83">
-        <v>-0.01284904103116452</v>
+        <v>-0.001311636534931802</v>
       </c>
       <c r="E83">
-        <v>-0.02782083466325268</v>
+        <v>-0.002653204247754106</v>
       </c>
       <c r="F83">
-        <v>-0.006749656543580652</v>
+        <v>-0.001253475847340207</v>
       </c>
       <c r="G83">
-        <v>-0.0309594672572521</v>
+        <v>-0.003178500400755935</v>
       </c>
       <c r="H83">
-        <v>-0.0216708693279753</v>
+        <v>-0.0008389220793953479</v>
       </c>
       <c r="I83">
-        <v>0.0166747674733464</v>
+        <v>0.0008014980000001043</v>
       </c>
       <c r="J83">
-        <v>-0.005074408576084143</v>
+        <v>-0.001554855379132627</v>
       </c>
       <c r="K83">
-        <v>-0.01247422179506202</v>
+        <v>-0.001283945172779247</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3314,34 +3314,34 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-1.137709114823123E-05</v>
+        <v>-0.1196273984403888</v>
       </c>
       <c r="C84">
-        <v>0.00138521067038271</v>
+        <v>0.2135986592968983</v>
       </c>
       <c r="D84">
-        <v>-0.001186108975189139</v>
+        <v>-0.1409120425354131</v>
       </c>
       <c r="E84">
-        <v>-0.003230812632595188</v>
+        <v>-0.3636290200764595</v>
       </c>
       <c r="F84">
-        <v>-0.001030833491291173</v>
+        <v>0.007200446038322753</v>
       </c>
       <c r="G84">
-        <v>-0.003640387910943067</v>
+        <v>-0.3978316407070066</v>
       </c>
       <c r="H84">
-        <v>-0.001744079985299184</v>
+        <v>0.06439564919110048</v>
       </c>
       <c r="I84">
-        <v>0.0006714986678871777</v>
+        <v>0.2744574023479651</v>
       </c>
       <c r="J84">
-        <v>-0.0005241428015310525</v>
+        <v>-0.2659413563903653</v>
       </c>
       <c r="K84">
-        <v>-0.0009065431290863509</v>
+        <v>-0.3096568017410578</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3349,34 +3349,34 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.007090915238634149</v>
+        <v>-0.07143525270583254</v>
       </c>
       <c r="C85">
-        <v>0.01028121353920675</v>
+        <v>0.1759533035197274</v>
       </c>
       <c r="D85">
-        <v>-0.01163993352558795</v>
+        <v>-0.02299935262113786</v>
       </c>
       <c r="E85">
-        <v>-0.03120644947064977</v>
+        <v>-0.2458405874883881</v>
       </c>
       <c r="F85">
-        <v>-0.01231031756985274</v>
+        <v>-0.1100677400308385</v>
       </c>
       <c r="G85">
-        <v>-0.02791762749908781</v>
+        <v>-0.2582456534650076</v>
       </c>
       <c r="H85">
-        <v>-0.01157699442947097</v>
+        <v>-0.0704772755054615</v>
       </c>
       <c r="I85">
-        <v>0.01230289424949447</v>
+        <v>0.2187227511565989</v>
       </c>
       <c r="J85">
-        <v>-0.004972912157903451</v>
+        <v>-0.1547942923002939</v>
       </c>
       <c r="K85">
-        <v>-0.01453252261848619</v>
+        <v>-0.07015793246945567</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3384,34 +3384,34 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.00607956063595307</v>
+        <v>-1.253532887958712E-05</v>
       </c>
       <c r="C86">
-        <v>0.01483525308653294</v>
+        <v>0.0007373735916440313</v>
       </c>
       <c r="D86">
-        <v>-0.00742558146843181</v>
+        <v>-0.002050831913639987</v>
       </c>
       <c r="E86">
-        <v>-0.0187519185132821</v>
+        <v>-0.002323681459000612</v>
       </c>
       <c r="F86">
-        <v>-0.01240042358901154</v>
+        <v>-0.0009689773831111838</v>
       </c>
       <c r="G86">
-        <v>-0.03257292274918986</v>
+        <v>-0.00326967096768872</v>
       </c>
       <c r="H86">
-        <v>-0.01247720108036823</v>
+        <v>-0.001929064903721869</v>
       </c>
       <c r="I86">
-        <v>0.01352186176425984</v>
+        <v>0.001235932405478427</v>
       </c>
       <c r="J86">
-        <v>-0.004949827730360721</v>
+        <v>-0.001555363369125861</v>
       </c>
       <c r="K86">
-        <v>-0.01229441055000996</v>
+        <v>-0.001643828013770356</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3419,34 +3419,34 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-9.270648820767964E-06</v>
+        <v>-0.06341495419766895</v>
       </c>
       <c r="C87">
-        <v>0.001386176233907206</v>
+        <v>0.1343761606504031</v>
       </c>
       <c r="D87">
-        <v>-0.00138517084215865</v>
+        <v>-0.0822674007997187</v>
       </c>
       <c r="E87">
-        <v>-0.002716866667201625</v>
+        <v>-0.2083030661314001</v>
       </c>
       <c r="F87">
-        <v>-0.001075728939597783</v>
+        <v>-0.06189831100607482</v>
       </c>
       <c r="G87">
-        <v>-0.003222686427811325</v>
+        <v>-0.1643106660789443</v>
       </c>
       <c r="H87">
-        <v>-0.001692777516686182</v>
+        <v>-0.04752751003983971</v>
       </c>
       <c r="I87">
-        <v>0.001147281600012068</v>
+        <v>0.06125558556836343</v>
       </c>
       <c r="J87">
-        <v>-0.0005262442091820135</v>
+        <v>-0.06808468899520606</v>
       </c>
       <c r="K87">
-        <v>-0.001301947260397434</v>
+        <v>-0.1213754181856131</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3454,34 +3454,34 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-1.038554182065412E-05</v>
+        <v>-0.04889734932987586</v>
       </c>
       <c r="C88">
-        <v>0.001361906218792042</v>
+        <v>0.09941725465151148</v>
       </c>
       <c r="D88">
-        <v>-0.001028104814624232</v>
+        <v>-0.05304325079473152</v>
       </c>
       <c r="E88">
-        <v>-0.002819712615632401</v>
+        <v>-0.1751483868538735</v>
       </c>
       <c r="F88">
-        <v>-0.0003613813700595207</v>
+        <v>-0.04215942912615077</v>
       </c>
       <c r="G88">
-        <v>-0.003357623168631061</v>
+        <v>-0.1649738239048998</v>
       </c>
       <c r="H88">
-        <v>-0.002155586655612351</v>
+        <v>-0.07370118358626108</v>
       </c>
       <c r="I88">
-        <v>0.001752790311815006</v>
+        <v>0.04479096190213886</v>
       </c>
       <c r="J88">
-        <v>-0.000525772783754447</v>
+        <v>-0.08106290383080353</v>
       </c>
       <c r="K88">
-        <v>-0.001261301634092687</v>
+        <v>-0.1040015113292297</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3489,34 +3489,34 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-1.043499764202115E-05</v>
+        <v>-0.1309073876063419</v>
       </c>
       <c r="C89">
-        <v>0.001782180370792288</v>
+        <v>0.2423593956799056</v>
       </c>
       <c r="D89">
-        <v>-0.001212379012781262</v>
+        <v>-0.003946967315819692</v>
       </c>
       <c r="E89">
-        <v>-0.003099919459175622</v>
+        <v>-0.4751871017990307</v>
       </c>
       <c r="F89">
-        <v>-0.0008383452798716056</v>
+        <v>-0.01217441270443894</v>
       </c>
       <c r="G89">
-        <v>-0.003301656720624633</v>
+        <v>-0.3992480602994063</v>
       </c>
       <c r="H89">
-        <v>-0.002079784806523707</v>
+        <v>0.08635581780968396</v>
       </c>
       <c r="I89">
-        <v>0.001154363604212124</v>
+        <v>0.1343170376252256</v>
       </c>
       <c r="J89">
-        <v>-0.0005249904113181433</v>
+        <v>-0.2363279134381275</v>
       </c>
       <c r="K89">
-        <v>-0.001144002125675462</v>
+        <v>-0.5653784032878513</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3524,34 +3524,34 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.05066279803737504</v>
+        <v>-0.01047120165949238</v>
       </c>
       <c r="C90">
-        <v>0.08437751300608465</v>
+        <v>0.01859558355180649</v>
       </c>
       <c r="D90">
-        <v>-0.0992190750309381</v>
+        <v>-0.007056473572698337</v>
       </c>
       <c r="E90">
-        <v>-0.1743357798325594</v>
+        <v>-0.03269588282157998</v>
       </c>
       <c r="F90">
-        <v>0.0007574310340248226</v>
+        <v>-0.01850515803393385</v>
       </c>
       <c r="G90">
-        <v>-0.1922710764990089</v>
+        <v>-0.03592302057359711</v>
       </c>
       <c r="H90">
-        <v>-0.06990723941752439</v>
+        <v>-0.01135040671340495</v>
       </c>
       <c r="I90">
-        <v>0.1293115996037455</v>
+        <v>0.01383921313097353</v>
       </c>
       <c r="J90">
-        <v>-0.04145472521265352</v>
+        <v>-0.01388232665846889</v>
       </c>
       <c r="K90">
-        <v>-0.1122584920328194</v>
+        <v>-0.006376818016685053</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3559,34 +3559,34 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-1.399037773803703E-05</v>
+        <v>-0.007928011179687411</v>
       </c>
       <c r="C91">
-        <v>0.001347169911144075</v>
+        <v>0.01681042214283396</v>
       </c>
       <c r="D91">
-        <v>-0.00106414243257024</v>
+        <v>-0.0202516140663526</v>
       </c>
       <c r="E91">
-        <v>-0.001971000710218744</v>
+        <v>-0.02614112372210558</v>
       </c>
       <c r="F91">
-        <v>-0.001185861514334823</v>
+        <v>-0.007435826015457281</v>
       </c>
       <c r="G91">
-        <v>-0.002502184070387494</v>
+        <v>-0.02640947265031454</v>
       </c>
       <c r="H91">
-        <v>-0.001136414829885929</v>
+        <v>-0.01153697109434294</v>
       </c>
       <c r="I91">
-        <v>0.0008642829453081297</v>
+        <v>0.01183554205378493</v>
       </c>
       <c r="J91">
-        <v>-0.0005251727258202502</v>
+        <v>-0.01406834441998306</v>
       </c>
       <c r="K91">
-        <v>-0.001654575952032779</v>
+        <v>-0.01219665201106477</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3594,34 +3594,34 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.007824905746961099</v>
+        <v>-0.1003495773779173</v>
       </c>
       <c r="C92">
-        <v>0.1884743858653055</v>
+        <v>0.2072733382903862</v>
       </c>
       <c r="D92">
-        <v>-0.1890259463373205</v>
+        <v>-0.1666489465068456</v>
       </c>
       <c r="E92">
-        <v>-0.3655371092764293</v>
+        <v>-0.3231353317947646</v>
       </c>
       <c r="F92">
-        <v>-0.1225212550517521</v>
+        <v>0.006455142508968155</v>
       </c>
       <c r="G92">
-        <v>-0.2779070170805613</v>
+        <v>-0.33766875441041</v>
       </c>
       <c r="H92">
-        <v>-0.1420351572885067</v>
+        <v>0.03469037464155555</v>
       </c>
       <c r="I92">
-        <v>0.1428369434840408</v>
+        <v>0.2457488592708096</v>
       </c>
       <c r="J92">
-        <v>-0.2320012204836011</v>
+        <v>-0.3281442111261781</v>
       </c>
       <c r="K92">
-        <v>-0.325698526111782</v>
+        <v>-0.3972343973137769</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3629,34 +3629,34 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.007357288963193905</v>
+        <v>-0.008711478267847716</v>
       </c>
       <c r="C93">
-        <v>0.01314136373330796</v>
+        <v>0.01272622620515836</v>
       </c>
       <c r="D93">
-        <v>-0.01144875118000023</v>
+        <v>-0.015116842663535</v>
       </c>
       <c r="E93">
-        <v>-0.02586908976172571</v>
+        <v>-0.02592249603914776</v>
       </c>
       <c r="F93">
-        <v>-0.007212546092266233</v>
+        <v>-0.01805962887821665</v>
       </c>
       <c r="G93">
-        <v>-0.02623783350631599</v>
+        <v>-0.02762048765229634</v>
       </c>
       <c r="H93">
-        <v>-0.02035254985875288</v>
+        <v>-0.01826050110484508</v>
       </c>
       <c r="I93">
-        <v>0.01720855138086929</v>
+        <v>0.01005872149178671</v>
       </c>
       <c r="J93">
-        <v>-0.004958392387426206</v>
+        <v>-0.01390798047978078</v>
       </c>
       <c r="K93">
-        <v>-0.01651990036475402</v>
+        <v>-0.01540065502702831</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3664,34 +3664,34 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.03179701448978227</v>
+        <v>-0.001018757805701327</v>
       </c>
       <c r="C94">
-        <v>0.07900265904261612</v>
+        <v>0.001810101146461645</v>
       </c>
       <c r="D94">
-        <v>-0.06294369162665447</v>
+        <v>-0.001656244661405969</v>
       </c>
       <c r="E94">
-        <v>-0.1725581155181822</v>
+        <v>-0.003419076307621774</v>
       </c>
       <c r="F94">
-        <v>-0.05491565309197028</v>
+        <v>-0.00137570913267944</v>
       </c>
       <c r="G94">
-        <v>-0.1521857557935195</v>
+        <v>-0.002885458430210523</v>
       </c>
       <c r="H94">
-        <v>-0.0606058557920708</v>
+        <v>-0.001649204974750494</v>
       </c>
       <c r="I94">
-        <v>0.05768491081484117</v>
+        <v>0.00126225540100585</v>
       </c>
       <c r="J94">
-        <v>-0.03528553752804369</v>
+        <v>-0.001551475759568513</v>
       </c>
       <c r="K94">
-        <v>-0.06303582472492111</v>
+        <v>-0.001860200029712403</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3699,34 +3699,34 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.0005768511961549706</v>
+        <v>-9.877555196549695E-06</v>
       </c>
       <c r="C95">
-        <v>0.0003881912305353431</v>
+        <v>0.001398485239688374</v>
       </c>
       <c r="D95">
-        <v>-0.001170421257415372</v>
+        <v>-0.001390970085278148</v>
       </c>
       <c r="E95">
-        <v>-0.002490139659823106</v>
+        <v>-0.002581285225511844</v>
       </c>
       <c r="F95">
-        <v>-0.0006782380687544389</v>
+        <v>-0.0006536895473125668</v>
       </c>
       <c r="G95">
-        <v>-0.002776368852846513</v>
+        <v>-0.002568724400829932</v>
       </c>
       <c r="H95">
-        <v>-0.001823736468529024</v>
+        <v>-0.001964871995593902</v>
       </c>
       <c r="I95">
-        <v>0.001394968178420895</v>
+        <v>0.001084052826086199</v>
       </c>
       <c r="J95">
-        <v>-0.0005241810194687393</v>
+        <v>-0.001553423036589252</v>
       </c>
       <c r="K95">
-        <v>-0.00175888145967835</v>
+        <v>-0.00173259685532658</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3734,34 +3734,34 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.05064095447764539</v>
+        <v>-1.280494292531859E-05</v>
       </c>
       <c r="C96">
-        <v>0.1053131409929417</v>
+        <v>0.001251454478587195</v>
       </c>
       <c r="D96">
-        <v>-0.03255840085750449</v>
+        <v>-0.001869592231043091</v>
       </c>
       <c r="E96">
-        <v>-0.1870976917764442</v>
+        <v>-0.002543914454045737</v>
       </c>
       <c r="F96">
-        <v>-0.03109846183804304</v>
+        <v>-0.001348573405120645</v>
       </c>
       <c r="G96">
-        <v>-0.1690836370772966</v>
+        <v>-0.003301406148830551</v>
       </c>
       <c r="H96">
-        <v>-0.09591999002547226</v>
+        <v>-0.001882113958018972</v>
       </c>
       <c r="I96">
-        <v>0.1446684881788696</v>
+        <v>0.0007431050581603437</v>
       </c>
       <c r="J96">
-        <v>-0.03606693637076559</v>
+        <v>-0.001550890336980366</v>
       </c>
       <c r="K96">
-        <v>-0.06850367325842968</v>
+        <v>-0.00129914587795203</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3769,34 +3769,34 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.006921379655717091</v>
+        <v>-0.0426779791387257</v>
       </c>
       <c r="C97">
-        <v>0.007148541355979835</v>
+        <v>0.1471048677845949</v>
       </c>
       <c r="D97">
-        <v>-0.02000231946334733</v>
+        <v>-0.02578583928447147</v>
       </c>
       <c r="E97">
-        <v>-0.01877020359722424</v>
+        <v>-0.1038495175179263</v>
       </c>
       <c r="F97">
-        <v>-0.01768696427381474</v>
+        <v>-0.06309831417240994</v>
       </c>
       <c r="G97">
-        <v>-0.03215114323974452</v>
+        <v>-0.1478191169144156</v>
       </c>
       <c r="H97">
-        <v>-0.01329718499511229</v>
+        <v>-0.07009604267982787</v>
       </c>
       <c r="I97">
-        <v>0.01010449130689989</v>
+        <v>0.08644588593099113</v>
       </c>
       <c r="J97">
-        <v>-0.004955569720303481</v>
+        <v>-0.08726717196985598</v>
       </c>
       <c r="K97">
-        <v>-0.01215799960334745</v>
+        <v>-0.1070248611998631</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3804,34 +3804,34 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-1.914375593041579E-06</v>
+        <v>-0.001252844174756378</v>
       </c>
       <c r="C98">
-        <v>0.001490666007292418</v>
+        <v>0.002402287651517376</v>
       </c>
       <c r="D98">
-        <v>-0.0006947614886003316</v>
+        <v>-0.001431082277393465</v>
       </c>
       <c r="E98">
-        <v>-0.001510305383554323</v>
+        <v>-0.003873407534729727</v>
       </c>
       <c r="F98">
-        <v>-0.0006232165991289327</v>
+        <v>-0.002137690118190908</v>
       </c>
       <c r="G98">
-        <v>-0.002957019296699564</v>
+        <v>-0.003409096054002135</v>
       </c>
       <c r="H98">
-        <v>-0.001342121428503789</v>
+        <v>-0.001681081485238831</v>
       </c>
       <c r="I98">
-        <v>0.001322657340704063</v>
+        <v>0.001416222810671082</v>
       </c>
       <c r="J98">
-        <v>-0.0005250817169769916</v>
+        <v>-0.001549295199530981</v>
       </c>
       <c r="K98">
-        <v>-0.0004610609453462398</v>
+        <v>-0.0009528452154406903</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3839,34 +3839,34 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.0007214695673786913</v>
+        <v>-0.008580456878159164</v>
       </c>
       <c r="C99">
-        <v>0.0009109645131398571</v>
+        <v>0.02157459390549295</v>
       </c>
       <c r="D99">
-        <v>-0.0009811823444171972</v>
+        <v>-0.00837961926311352</v>
       </c>
       <c r="E99">
-        <v>-0.002588025578107919</v>
+        <v>-0.03019251486278613</v>
       </c>
       <c r="F99">
-        <v>-0.0005579740937278724</v>
+        <v>-0.0136803704228513</v>
       </c>
       <c r="G99">
-        <v>-0.003326864716800517</v>
+        <v>-0.02505638315684922</v>
       </c>
       <c r="H99">
-        <v>-0.002034497162739878</v>
+        <v>-0.006760857401758422</v>
       </c>
       <c r="I99">
-        <v>0.001146228788266043</v>
+        <v>0.01815630973306029</v>
       </c>
       <c r="J99">
-        <v>-0.0005242044552410455</v>
+        <v>-0.01441499949818354</v>
       </c>
       <c r="K99">
-        <v>-0.00169119904307848</v>
+        <v>-0.01183139803263691</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3874,34 +3874,34 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-7.643299102816968E-06</v>
+        <v>-0.08839471740391795</v>
       </c>
       <c r="C100">
-        <v>0.001426996286810059</v>
+        <v>0.1325519526416158</v>
       </c>
       <c r="D100">
-        <v>-0.001321225132902682</v>
+        <v>-0.1900441425807612</v>
       </c>
       <c r="E100">
-        <v>-0.002668747132037035</v>
+        <v>-0.255896370546527</v>
       </c>
       <c r="F100">
-        <v>-0.0008135143131248824</v>
+        <v>-0.0495616663414882</v>
       </c>
       <c r="G100">
-        <v>-0.002768227237426689</v>
+        <v>-0.3083331411514514</v>
       </c>
       <c r="H100">
-        <v>-0.001681428107718554</v>
+        <v>-0.1655760729380687</v>
       </c>
       <c r="I100">
-        <v>0.001191125387439823</v>
+        <v>0.03594261939414953</v>
       </c>
       <c r="J100">
-        <v>-0.0005250351463192868</v>
+        <v>-0.1175195313496882</v>
       </c>
       <c r="K100">
-        <v>-0.001675132841568404</v>
+        <v>-0.2711452861657525</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3909,34 +3909,34 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.001209904798044291</v>
+        <v>-0.007880673663539202</v>
       </c>
       <c r="C101">
-        <v>0.001969746941373091</v>
+        <v>0.01726777710516642</v>
       </c>
       <c r="D101">
-        <v>-0.001289966795780971</v>
+        <v>-0.008830129841326964</v>
       </c>
       <c r="E101">
-        <v>-0.003848725265431032</v>
+        <v>-0.0325503034650759</v>
       </c>
       <c r="F101">
-        <v>-0.000966898232679807</v>
+        <v>-0.01167701074452816</v>
       </c>
       <c r="G101">
-        <v>-0.003519272338180575</v>
+        <v>-0.02351661690137788</v>
       </c>
       <c r="H101">
-        <v>-0.002209433486626453</v>
+        <v>-0.009024396839615626</v>
       </c>
       <c r="I101">
-        <v>0.001774082140219799</v>
+        <v>0.01094449437355821</v>
       </c>
       <c r="J101">
-        <v>-0.0005229039354017733</v>
+        <v>-0.01432350695965519</v>
       </c>
       <c r="K101">
-        <v>-0.001598480250734029</v>
+        <v>-0.0146312118161788</v>
       </c>
     </row>
   </sheetData>
